--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <t>John</t>
   </si>
@@ -190,17 +191,74 @@
     <t>subjectClassesPreferredEndPeriod</t>
   </si>
   <si>
-    <t>subjectClassesPreferredNumberDays</t>
-  </si>
-  <si>
     <t>preferencePreferredNumberPeriodsDay</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>0800-0850</t>
+  </si>
+  <si>
+    <t>0850-0940</t>
+  </si>
+  <si>
+    <t>0940-1030</t>
+  </si>
+  <si>
+    <t>1030-1120</t>
+  </si>
+  <si>
+    <t>1120-1210</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
+  <si>
+    <t>SubjClass</t>
+  </si>
+  <si>
+    <t>Room Type</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ComLAB 1</t>
+  </si>
+  <si>
+    <t>COMLAB2</t>
+  </si>
+  <si>
+    <t>Room 2 - UNDER CONSTRUCTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +266,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -225,17 +355,403 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P40"/>
+  <dimension ref="A3:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,13 +1080,14 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="16" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
@@ -598,11 +1115,9 @@
       <c r="O3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -615,38 +1130,36 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="5">
         <v>5</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -686,11 +1199,9 @@
       <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="P5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -703,38 +1214,36 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>1</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -774,11 +1283,9 @@
       <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="P7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -791,38 +1298,36 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="5">
         <v>5</v>
       </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>5</v>
       </c>
@@ -848,18 +1353,11 @@
         <v>5</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -876,7 +1374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -893,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -910,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -926,8 +1424,287 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="43"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH16" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <f>QUOTIENT(L17,5)+1</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MOD(L17,5)+1</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="59">
+        <v>5</v>
+      </c>
+      <c r="P17" s="71" t="str">
+        <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,2,))</f>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q17" s="61" t="str">
+        <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,4,))</f>
+        <v>Mechtronics</v>
+      </c>
+      <c r="R17" s="60" t="str">
+        <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,5,))</f>
+        <v>James</v>
+      </c>
+      <c r="S17" s="62" t="str">
+        <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,6,))</f>
+        <v>classroom</v>
+      </c>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48" t="str">
+        <f t="shared" ref="U17:U31" si="0">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="V17" s="49" t="str">
+        <f t="shared" ref="V17:V31" si="1">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="W17" s="48" t="str">
+        <f t="shared" ref="W17:W31" si="2">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="X17" s="50" t="str">
+        <f t="shared" ref="X17:X31" si="3">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+      <c r="Y17" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="79" t="str">
+        <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,2,))</f>
+        <v>MATH101</v>
+      </c>
+      <c r="AA17" s="39" t="str">
+        <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,4,))</f>
+        <v>Electronics</v>
+      </c>
+      <c r="AB17" s="38" t="str">
+        <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,5,))</f>
+        <v>John</v>
+      </c>
+      <c r="AC17" s="40" t="str">
+        <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,6,))</f>
+        <v>computer lab</v>
+      </c>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48" t="str">
+        <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="AF17" s="49" t="str">
+        <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="AG17" s="48" t="str">
+        <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="AH17" s="50" t="str">
+        <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:J31" si="4">QUOTIENT(L18,5)+1</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:K31" si="5">MOD(L18,5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16" t="str">
+        <f t="shared" ref="P18:P31" si="6">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="Q18" s="17" t="str">
+        <f t="shared" ref="Q18:Q31" si="7">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="R18" s="16" t="str">
+        <f t="shared" ref="R18:R31" si="8">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="S18" s="18" t="str">
+        <f t="shared" ref="S18:S31" si="9">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+      <c r="T18" s="51"/>
+      <c r="U18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V18" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W18" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X18" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="80" t="str">
+        <f t="shared" ref="Z18:Z31" si="10">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,2,))</f>
+        <v>MATH101</v>
+      </c>
+      <c r="AA18" s="31" t="str">
+        <f t="shared" ref="AA18:AA31" si="11">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,4,))</f>
+        <v>Electronics</v>
+      </c>
+      <c r="AB18" s="30" t="str">
+        <f t="shared" ref="AB18:AB31" si="12">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,5,))</f>
+        <v>John</v>
+      </c>
+      <c r="AC18" s="32" t="str">
+        <f t="shared" ref="AC18:AC31" si="13">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,6,))</f>
+        <v>computer lab</v>
+      </c>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="52" t="str">
+        <f t="shared" ref="AE18:AE31" si="14">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="AF18" s="53" t="str">
+        <f t="shared" ref="AF18:AF31" si="15">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="AG18" s="52" t="str">
+        <f t="shared" ref="AG18:AG31" si="16">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="AH18" s="54" t="str">
+        <f t="shared" ref="AH18:AH31" si="17">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -943,8 +1720,93 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="29">
+        <v>2</v>
+      </c>
+      <c r="P19" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q19" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>Electronics</v>
+      </c>
+      <c r="R19" s="30" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S19" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T19" s="51"/>
+      <c r="U19" s="52" t="str">
+        <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="V19" s="53" t="str">
+        <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="W19" s="52" t="str">
+        <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="X19" s="54" t="str">
+        <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA19" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB19" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC19" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF19" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG19" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH19" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -960,8 +1822,96 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="29">
+        <v>1</v>
+      </c>
+      <c r="P20" s="77" t="str">
+        <f t="shared" si="6"/>
+        <v>POLSCI101</v>
+      </c>
+      <c r="Q20" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>Electronics</v>
+      </c>
+      <c r="R20" s="30" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Paul
+</v>
+      </c>
+      <c r="S20" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T20" s="51"/>
+      <c r="U20" s="52" t="str">
+        <f t="shared" ref="U20:U31" si="18">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="V20" s="53" t="str">
+        <f t="shared" ref="V20:V31" si="19">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="W20" s="52" t="str">
+        <f t="shared" ref="W20:W31" si="20">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="X20" s="54" t="str">
+        <f t="shared" ref="X20:X31" si="21">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+      <c r="Y20" s="63">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="81" t="str">
+        <f t="shared" si="10"/>
+        <v>MATH101</v>
+      </c>
+      <c r="AA20" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="AB20" s="64" t="str">
+        <f t="shared" si="12"/>
+        <v>John</v>
+      </c>
+      <c r="AC20" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>computer lab</v>
+      </c>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF20" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG20" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH20" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -977,8 +1927,361 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="33">
+        <v>1</v>
+      </c>
+      <c r="P21" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>POLSCI101</v>
+      </c>
+      <c r="Q21" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v>Electronics</v>
+      </c>
+      <c r="R21" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Paul
+</v>
+      </c>
+      <c r="S21" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T21" s="55"/>
+      <c r="U21" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V21" s="57" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W21" s="56" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X21" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y21" s="67">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="82" t="str">
+        <f t="shared" si="10"/>
+        <v>MATH101</v>
+      </c>
+      <c r="AA21" s="69" t="str">
+        <f t="shared" si="11"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="AB21" s="68" t="str">
+        <f t="shared" si="12"/>
+        <v>John</v>
+      </c>
+      <c r="AC21" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>computer lab</v>
+      </c>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF21" s="57" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG21" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH21" s="58" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="59">
+        <v>4</v>
+      </c>
+      <c r="P22" s="75" t="str">
+        <f t="shared" si="6"/>
+        <v>POLSCI101</v>
+      </c>
+      <c r="Q22" s="61" t="str">
+        <f t="shared" si="7"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="R22" s="60" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Paul
+</v>
+      </c>
+      <c r="S22" s="62" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T22" s="47"/>
+      <c r="U22" s="48" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V22" s="49" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W22" s="48" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X22" s="50" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA22" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB22" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC22" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF22" s="49" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG22" s="48" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH22" s="50" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>6</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="63">
+        <v>4</v>
+      </c>
+      <c r="P23" s="76" t="str">
+        <f t="shared" si="6"/>
+        <v>POLSCI101</v>
+      </c>
+      <c r="Q23" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="R23" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Paul
+</v>
+      </c>
+      <c r="S23" s="66" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T23" s="51"/>
+      <c r="U23" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V23" s="53" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W23" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X23" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB23" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC23" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF23" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG23" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH23" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="63">
+        <v>5</v>
+      </c>
+      <c r="P24" s="73" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q24" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="R24" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S24" s="66" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T24" s="51"/>
+      <c r="U24" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V24" s="53" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W24" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X24" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA24" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB24" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC24" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF24" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG24" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH24" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -994,8 +2297,93 @@
       <c r="E25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J25" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="3">
+        <v>8</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="29">
+        <v>2</v>
+      </c>
+      <c r="P25" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q25" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>Electronics</v>
+      </c>
+      <c r="R25" s="30" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S25" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T25" s="51"/>
+      <c r="U25" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V25" s="53" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W25" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X25" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA25" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB25" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC25" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF25" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG25" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH25" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1011,8 +2399,93 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J26" s="6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="33">
+        <v>2</v>
+      </c>
+      <c r="P26" s="74" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q26" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v>Electronics</v>
+      </c>
+      <c r="R26" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S26" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T26" s="55"/>
+      <c r="U26" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V26" s="57" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W26" s="56" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X26" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA26" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB26" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC26" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF26" s="57" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG26" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH26" s="58" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1028,8 +2501,95 @@
       <c r="E27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>10</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="59">
+        <v>5</v>
+      </c>
+      <c r="P27" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q27" s="61" t="str">
+        <f t="shared" si="7"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="R27" s="60" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S27" s="62" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T27" s="47"/>
+      <c r="U27" s="48" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V27" s="49" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W27" s="48" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X27" s="50" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA27" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB27" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC27" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="48" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF27" s="49" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG27" s="48" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH27" s="50" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1045,8 +2605,93 @@
       <c r="E28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="63">
+        <v>5</v>
+      </c>
+      <c r="P28" s="73" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q28" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="R28" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S28" s="66" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T28" s="51"/>
+      <c r="U28" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V28" s="53" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W28" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X28" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA28" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB28" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC28" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF28" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG28" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH28" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1062,50 +2707,426 @@
       <c r="E29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>12</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="29">
+        <v>2</v>
+      </c>
+      <c r="P29" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="Q29" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>Electronics</v>
+      </c>
+      <c r="R29" s="30" t="str">
+        <f t="shared" si="8"/>
+        <v>James</v>
+      </c>
+      <c r="S29" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>classroom</v>
+      </c>
+      <c r="T29" s="51"/>
+      <c r="U29" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V29" s="53" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W29" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X29" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA29" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB29" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC29" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF29" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG29" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH29" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="3">
+        <v>13</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q30" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R30" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S30" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V30" s="53" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W30" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X30" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA30" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB30" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC30" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF30" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG30" s="52" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH30" s="54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>14</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q31" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R31" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S31" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V31" s="57" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W31" s="56" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X31" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA31" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB31" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC31" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AF31" s="57" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AG31" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AH31" s="58" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+    </row>
+    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+    </row>
+    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="28">
+        <v>2</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+    </row>
+    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="M36" s="4">
+        <v>2</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="M38" s="4">
+        <v>4</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AH15"/>
+  </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 I10 N34:N39">
       <formula1>$B$13:$B$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10">
@@ -1121,4 +3142,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
   <si>
     <t>John</t>
   </si>
@@ -164,9 +164,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>Room</t>
-  </si>
-  <si>
     <t>workshop mec</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Room Type</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ComLAB 1</t>
   </si>
   <si>
@@ -252,6 +246,9 @@
   </si>
   <si>
     <t>Room 2 - UNDER CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>Room type</t>
   </si>
 </sst>
 </file>
@@ -260,14 +257,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -304,6 +293,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -522,15 +519,216 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,93 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,122 +747,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,12 +1082,14 @@
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1104,16 +1106,16 @@
         <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -1130,36 +1132,36 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="82">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="82">
+        <v>2</v>
+      </c>
+      <c r="J4" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="82">
         <v>1</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="82">
         <v>5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="82">
         <v>2</v>
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1172,31 +1174,31 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>2</v>
       </c>
       <c r="P5" s="2"/>
@@ -1214,36 +1216,36 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="82">
+        <v>2</v>
+      </c>
+      <c r="H6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="82">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="82">
         <v>1</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="82">
         <v>5</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="82">
         <v>3</v>
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1256,36 +1258,36 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>2</v>
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1298,61 +1300,61 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="82">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="82">
+        <v>2</v>
+      </c>
+      <c r="J8" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="82">
         <v>1</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="82">
         <v>5</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="82">
         <v>2</v>
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G9">
+    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>5</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>3</v>
       </c>
       <c r="P9" s="2"/>
@@ -1424,106 +1426,106 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="9" t="s">
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="43"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="81"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="T16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="W16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="X16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="44" t="s">
+      <c r="Z16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="45" t="s">
+      <c r="AD16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="V16" s="45" t="s">
+      <c r="AG16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="W16" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="X16" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y16" s="12" t="s">
+      <c r="AH16" s="39" t="s">
         <v>69</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD16" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE16" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF16" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG16" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH16" s="46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
@@ -1539,80 +1541,80 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="59">
+      <c r="O17" s="52">
         <v>5</v>
       </c>
-      <c r="P17" s="71" t="str">
+      <c r="P17" s="64" t="str">
         <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,2,))</f>
         <v>ENGL101</v>
       </c>
-      <c r="Q17" s="61" t="str">
+      <c r="Q17" s="54" t="str">
         <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,4,))</f>
         <v>Mechtronics</v>
       </c>
-      <c r="R17" s="60" t="str">
+      <c r="R17" s="53" t="str">
         <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,5,))</f>
         <v>James</v>
       </c>
-      <c r="S17" s="62" t="str">
+      <c r="S17" s="55" t="str">
         <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,6,))</f>
         <v>classroom</v>
       </c>
-      <c r="T17" s="47"/>
-      <c r="U17" s="48" t="str">
-        <f t="shared" ref="U17:U31" si="0">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,2,))</f>
-        <v/>
-      </c>
-      <c r="V17" s="49" t="str">
-        <f t="shared" ref="V17:V31" si="1">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,4,))</f>
-        <v/>
-      </c>
-      <c r="W17" s="48" t="str">
-        <f t="shared" ref="W17:W31" si="2">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,5,))</f>
-        <v/>
-      </c>
-      <c r="X17" s="50" t="str">
-        <f t="shared" ref="X17:X31" si="3">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,6,))</f>
-        <v/>
-      </c>
-      <c r="Y17" s="37">
+      <c r="T17" s="40"/>
+      <c r="U17" s="41" t="str">
+        <f t="shared" ref="U17:U18" si="0">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,2,))</f>
+        <v/>
+      </c>
+      <c r="V17" s="42" t="str">
+        <f t="shared" ref="V17:V18" si="1">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,4,))</f>
+        <v/>
+      </c>
+      <c r="W17" s="41" t="str">
+        <f t="shared" ref="W17:W18" si="2">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,5,))</f>
+        <v/>
+      </c>
+      <c r="X17" s="43" t="str">
+        <f t="shared" ref="X17:X18" si="3">IF(ISBLANK($T17),"",VLOOKUP($T17,$G$4:$L$9,6,))</f>
+        <v/>
+      </c>
+      <c r="Y17" s="33">
         <v>0</v>
       </c>
-      <c r="Z17" s="79" t="str">
+      <c r="Z17" s="72" t="str">
         <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,2,))</f>
         <v>MATH101</v>
       </c>
-      <c r="AA17" s="39" t="str">
+      <c r="AA17" s="35" t="str">
         <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,4,))</f>
         <v>Electronics</v>
       </c>
-      <c r="AB17" s="38" t="str">
+      <c r="AB17" s="34" t="str">
         <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,5,))</f>
         <v>John</v>
       </c>
-      <c r="AC17" s="40" t="str">
+      <c r="AC17" s="36" t="str">
         <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,6,))</f>
         <v>computer lab</v>
       </c>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="48" t="str">
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="41" t="str">
         <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,2,))</f>
         <v/>
       </c>
-      <c r="AF17" s="49" t="str">
+      <c r="AF17" s="42" t="str">
         <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,4,))</f>
         <v/>
       </c>
-      <c r="AG17" s="48" t="str">
+      <c r="AG17" s="41" t="str">
         <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,5,))</f>
         <v/>
       </c>
-      <c r="AH17" s="50" t="str">
+      <c r="AH17" s="43" t="str">
         <f>IF(ISBLANK($AD17),"",VLOOKUP($AD17,$G$4:$L$9,6,))</f>
         <v/>
       </c>
@@ -1630,76 +1632,76 @@
         <v>1</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16" t="str">
+      <c r="N18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12" t="str">
         <f t="shared" ref="P18:P31" si="6">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,2,))</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q18" s="13" t="str">
         <f t="shared" ref="Q18:Q31" si="7">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,4,))</f>
         <v/>
       </c>
-      <c r="R18" s="16" t="str">
+      <c r="R18" s="12" t="str">
         <f t="shared" ref="R18:R31" si="8">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,5,))</f>
         <v/>
       </c>
-      <c r="S18" s="18" t="str">
+      <c r="S18" s="14" t="str">
         <f t="shared" ref="S18:S31" si="9">IF(ISBLANK($O18),"",VLOOKUP($O18,$G$4:$L$9,6,))</f>
         <v/>
       </c>
-      <c r="T18" s="51"/>
-      <c r="U18" s="52" t="str">
+      <c r="T18" s="44"/>
+      <c r="U18" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V18" s="53" t="str">
+      <c r="V18" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W18" s="52" t="str">
+      <c r="W18" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X18" s="54" t="str">
+      <c r="X18" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="25">
         <v>0</v>
       </c>
-      <c r="Z18" s="80" t="str">
+      <c r="Z18" s="73" t="str">
         <f t="shared" ref="Z18:Z31" si="10">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,2,))</f>
         <v>MATH101</v>
       </c>
-      <c r="AA18" s="31" t="str">
+      <c r="AA18" s="27" t="str">
         <f t="shared" ref="AA18:AA31" si="11">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,4,))</f>
         <v>Electronics</v>
       </c>
-      <c r="AB18" s="30" t="str">
+      <c r="AB18" s="26" t="str">
         <f t="shared" ref="AB18:AB31" si="12">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,5,))</f>
         <v>John</v>
       </c>
-      <c r="AC18" s="32" t="str">
+      <c r="AC18" s="28" t="str">
         <f t="shared" ref="AC18:AC31" si="13">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,6,))</f>
         <v>computer lab</v>
       </c>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="52" t="str">
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="45" t="str">
         <f t="shared" ref="AE18:AE31" si="14">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,2,))</f>
         <v/>
       </c>
-      <c r="AF18" s="53" t="str">
+      <c r="AF18" s="46" t="str">
         <f t="shared" ref="AF18:AF31" si="15">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,4,))</f>
         <v/>
       </c>
-      <c r="AG18" s="52" t="str">
+      <c r="AG18" s="45" t="str">
         <f t="shared" ref="AG18:AG31" si="16">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,5,))</f>
         <v/>
       </c>
-      <c r="AH18" s="54" t="str">
+      <c r="AH18" s="47" t="str">
         <f t="shared" ref="AH18:AH31" si="17">IF(ISBLANK($AD18),"",VLOOKUP($AD18,$G$4:$L$9,6,))</f>
         <v/>
       </c>
@@ -1732,76 +1734,76 @@
         <v>2</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="29">
-        <v>2</v>
-      </c>
-      <c r="P19" s="72" t="str">
+      <c r="N19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="25">
+        <v>2</v>
+      </c>
+      <c r="P19" s="65" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q19" s="31" t="str">
+      <c r="Q19" s="27" t="str">
         <f t="shared" si="7"/>
         <v>Electronics</v>
       </c>
-      <c r="R19" s="30" t="str">
+      <c r="R19" s="26" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S19" s="32" t="str">
+      <c r="S19" s="28" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52" t="str">
+      <c r="T19" s="44"/>
+      <c r="U19" s="45" t="str">
         <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,2,))</f>
         <v/>
       </c>
-      <c r="V19" s="53" t="str">
+      <c r="V19" s="46" t="str">
         <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,4,))</f>
         <v/>
       </c>
-      <c r="W19" s="52" t="str">
+      <c r="W19" s="45" t="str">
         <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,5,))</f>
         <v/>
       </c>
-      <c r="X19" s="54" t="str">
+      <c r="X19" s="47" t="str">
         <f>IF(ISBLANK($T19),"",VLOOKUP($T19,$G$4:$L$9,6,))</f>
         <v/>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16" t="str">
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA19" s="17" t="str">
+      <c r="AA19" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB19" s="16" t="str">
+      <c r="AB19" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC19" s="18" t="str">
+      <c r="AC19" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="52" t="str">
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF19" s="53" t="str">
+      <c r="AF19" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG19" s="52" t="str">
+      <c r="AG19" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH19" s="54" t="str">
+      <c r="AH19" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -1834,79 +1836,79 @@
         <v>3</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="29">
+      <c r="N20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="25">
         <v>1</v>
       </c>
-      <c r="P20" s="77" t="str">
+      <c r="P20" s="70" t="str">
         <f t="shared" si="6"/>
         <v>POLSCI101</v>
       </c>
-      <c r="Q20" s="31" t="str">
+      <c r="Q20" s="27" t="str">
         <f t="shared" si="7"/>
         <v>Electronics</v>
       </c>
-      <c r="R20" s="30" t="str">
+      <c r="R20" s="26" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Paul
 </v>
       </c>
-      <c r="S20" s="32" t="str">
+      <c r="S20" s="28" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52" t="str">
+      <c r="T20" s="44"/>
+      <c r="U20" s="45" t="str">
         <f t="shared" ref="U20:U31" si="18">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,2,))</f>
         <v/>
       </c>
-      <c r="V20" s="53" t="str">
+      <c r="V20" s="46" t="str">
         <f t="shared" ref="V20:V31" si="19">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,4,))</f>
         <v/>
       </c>
-      <c r="W20" s="52" t="str">
+      <c r="W20" s="45" t="str">
         <f t="shared" ref="W20:W31" si="20">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,5,))</f>
         <v/>
       </c>
-      <c r="X20" s="54" t="str">
+      <c r="X20" s="47" t="str">
         <f t="shared" ref="X20:X31" si="21">IF(ISBLANK($T20),"",VLOOKUP($T20,$G$4:$L$9,6,))</f>
         <v/>
       </c>
-      <c r="Y20" s="63">
+      <c r="Y20" s="56">
         <v>3</v>
       </c>
-      <c r="Z20" s="81" t="str">
+      <c r="Z20" s="74" t="str">
         <f t="shared" si="10"/>
         <v>MATH101</v>
       </c>
-      <c r="AA20" s="65" t="str">
+      <c r="AA20" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Mechtronics</v>
       </c>
-      <c r="AB20" s="64" t="str">
+      <c r="AB20" s="57" t="str">
         <f t="shared" si="12"/>
         <v>John</v>
       </c>
-      <c r="AC20" s="66" t="str">
+      <c r="AC20" s="59" t="str">
         <f t="shared" si="13"/>
         <v>computer lab</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="52" t="str">
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF20" s="53" t="str">
+      <c r="AF20" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG20" s="52" t="str">
+      <c r="AG20" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH20" s="54" t="str">
+      <c r="AH20" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -1939,344 +1941,344 @@
         <v>4</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="33">
+      <c r="N21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="29">
         <v>1</v>
       </c>
-      <c r="P21" s="78" t="str">
+      <c r="P21" s="71" t="str">
         <f t="shared" si="6"/>
         <v>POLSCI101</v>
       </c>
-      <c r="Q21" s="35" t="str">
+      <c r="Q21" s="31" t="str">
         <f t="shared" si="7"/>
         <v>Electronics</v>
       </c>
-      <c r="R21" s="34" t="str">
+      <c r="R21" s="30" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Paul
 </v>
       </c>
-      <c r="S21" s="36" t="str">
+      <c r="S21" s="32" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T21" s="55"/>
-      <c r="U21" s="56" t="str">
+      <c r="T21" s="48"/>
+      <c r="U21" s="49" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V21" s="57" t="str">
+      <c r="V21" s="50" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W21" s="56" t="str">
+      <c r="W21" s="49" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X21" s="58" t="str">
+      <c r="X21" s="51" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y21" s="67">
+      <c r="Y21" s="60">
         <v>3</v>
       </c>
-      <c r="Z21" s="82" t="str">
+      <c r="Z21" s="75" t="str">
         <f t="shared" si="10"/>
         <v>MATH101</v>
       </c>
-      <c r="AA21" s="69" t="str">
+      <c r="AA21" s="62" t="str">
         <f t="shared" si="11"/>
         <v>Mechtronics</v>
       </c>
-      <c r="AB21" s="68" t="str">
+      <c r="AB21" s="61" t="str">
         <f t="shared" si="12"/>
         <v>John</v>
       </c>
-      <c r="AC21" s="70" t="str">
+      <c r="AC21" s="63" t="str">
         <f t="shared" si="13"/>
         <v>computer lab</v>
       </c>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="56" t="str">
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="49" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF21" s="57" t="str">
+      <c r="AF21" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG21" s="56" t="str">
+      <c r="AG21" s="49" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH21" s="58" t="str">
+      <c r="AH21" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="J22" s="6">
+      <c r="J22" s="83">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="83">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="83">
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="59">
+        <v>63</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="52">
         <v>4</v>
       </c>
-      <c r="P22" s="75" t="str">
+      <c r="P22" s="68" t="str">
         <f t="shared" si="6"/>
         <v>POLSCI101</v>
       </c>
-      <c r="Q22" s="61" t="str">
+      <c r="Q22" s="54" t="str">
         <f t="shared" si="7"/>
         <v>Mechtronics</v>
       </c>
-      <c r="R22" s="60" t="str">
+      <c r="R22" s="53" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Paul
 </v>
       </c>
-      <c r="S22" s="62" t="str">
+      <c r="S22" s="55" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T22" s="47"/>
-      <c r="U22" s="48" t="str">
+      <c r="T22" s="40"/>
+      <c r="U22" s="41" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V22" s="49" t="str">
+      <c r="V22" s="42" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W22" s="48" t="str">
+      <c r="W22" s="41" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X22" s="50" t="str">
+      <c r="X22" s="43" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="24" t="str">
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA22" s="25" t="str">
+      <c r="AA22" s="21" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB22" s="24" t="str">
+      <c r="AB22" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC22" s="26" t="str">
+      <c r="AC22" s="22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48" t="str">
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF22" s="49" t="str">
+      <c r="AF22" s="42" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG22" s="48" t="str">
+      <c r="AG22" s="41" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH22" s="50" t="str">
+      <c r="AH22" s="43" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="J23" s="6">
+      <c r="J23" s="83">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="83">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="83">
         <v>6</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" s="63">
+      <c r="N23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="56">
         <v>4</v>
       </c>
-      <c r="P23" s="76" t="str">
+      <c r="P23" s="69" t="str">
         <f t="shared" si="6"/>
         <v>POLSCI101</v>
       </c>
-      <c r="Q23" s="65" t="str">
+      <c r="Q23" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Mechtronics</v>
       </c>
-      <c r="R23" s="64" t="str">
+      <c r="R23" s="57" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">Paul
 </v>
       </c>
-      <c r="S23" s="66" t="str">
+      <c r="S23" s="59" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52" t="str">
+      <c r="T23" s="44"/>
+      <c r="U23" s="45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V23" s="53" t="str">
+      <c r="V23" s="46" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W23" s="52" t="str">
+      <c r="W23" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X23" s="54" t="str">
+      <c r="X23" s="47" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16" t="str">
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA23" s="17" t="str">
+      <c r="AA23" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB23" s="16" t="str">
+      <c r="AB23" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC23" s="18" t="str">
+      <c r="AC23" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="52" t="str">
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF23" s="53" t="str">
+      <c r="AF23" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG23" s="52" t="str">
+      <c r="AG23" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH23" s="54" t="str">
+      <c r="AH23" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="J24" s="6">
+      <c r="J24" s="83">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="83">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="83">
         <v>7</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" s="63">
+      <c r="N24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="56">
         <v>5</v>
       </c>
-      <c r="P24" s="73" t="str">
+      <c r="P24" s="66" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q24" s="65" t="str">
+      <c r="Q24" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Mechtronics</v>
       </c>
-      <c r="R24" s="64" t="str">
+      <c r="R24" s="57" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S24" s="66" t="str">
+      <c r="S24" s="59" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52" t="str">
+      <c r="T24" s="44"/>
+      <c r="U24" s="45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V24" s="53" t="str">
+      <c r="V24" s="46" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W24" s="52" t="str">
+      <c r="W24" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X24" s="54" t="str">
+      <c r="X24" s="47" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="16" t="str">
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA24" s="17" t="str">
+      <c r="AA24" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB24" s="16" t="str">
+      <c r="AB24" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC24" s="18" t="str">
+      <c r="AC24" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52" t="str">
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF24" s="53" t="str">
+      <c r="AF24" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG24" s="52" t="str">
+      <c r="AG24" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH24" s="54" t="str">
+      <c r="AH24" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2297,88 +2299,88 @@
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="83">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="83">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="83">
         <v>8</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" s="29">
-        <v>2</v>
-      </c>
-      <c r="P25" s="72" t="str">
+      <c r="N25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="25">
+        <v>2</v>
+      </c>
+      <c r="P25" s="65" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q25" s="31" t="str">
+      <c r="Q25" s="27" t="str">
         <f t="shared" si="7"/>
         <v>Electronics</v>
       </c>
-      <c r="R25" s="30" t="str">
+      <c r="R25" s="26" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S25" s="32" t="str">
+      <c r="S25" s="28" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52" t="str">
+      <c r="T25" s="44"/>
+      <c r="U25" s="45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V25" s="53" t="str">
+      <c r="V25" s="46" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W25" s="52" t="str">
+      <c r="W25" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X25" s="54" t="str">
+      <c r="X25" s="47" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="16" t="str">
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA25" s="17" t="str">
+      <c r="AA25" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB25" s="16" t="str">
+      <c r="AB25" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC25" s="18" t="str">
+      <c r="AC25" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="52" t="str">
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF25" s="53" t="str">
+      <c r="AF25" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG25" s="52" t="str">
+      <c r="AG25" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH25" s="54" t="str">
+      <c r="AH25" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2399,88 +2401,88 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="83">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="83">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="83">
         <v>9</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="33">
-        <v>2</v>
-      </c>
-      <c r="P26" s="74" t="str">
+      <c r="N26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="29">
+        <v>2</v>
+      </c>
+      <c r="P26" s="67" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q26" s="35" t="str">
+      <c r="Q26" s="31" t="str">
         <f t="shared" si="7"/>
         <v>Electronics</v>
       </c>
-      <c r="R26" s="34" t="str">
+      <c r="R26" s="30" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S26" s="36" t="str">
+      <c r="S26" s="32" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T26" s="55"/>
-      <c r="U26" s="56" t="str">
+      <c r="T26" s="48"/>
+      <c r="U26" s="49" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V26" s="57" t="str">
+      <c r="V26" s="50" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W26" s="56" t="str">
+      <c r="W26" s="49" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X26" s="58" t="str">
+      <c r="X26" s="51" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="20" t="str">
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="16" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA26" s="21" t="str">
+      <c r="AA26" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB26" s="20" t="str">
+      <c r="AB26" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC26" s="22" t="str">
+      <c r="AC26" s="18" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="56" t="str">
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="49" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF26" s="57" t="str">
+      <c r="AF26" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG26" s="56" t="str">
+      <c r="AG26" s="49" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH26" s="58" t="str">
+      <c r="AH26" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2513,78 +2515,78 @@
         <v>10</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O27" s="59">
+        <v>64</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="52">
         <v>5</v>
       </c>
-      <c r="P27" s="71" t="str">
+      <c r="P27" s="64" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q27" s="61" t="str">
+      <c r="Q27" s="54" t="str">
         <f t="shared" si="7"/>
         <v>Mechtronics</v>
       </c>
-      <c r="R27" s="60" t="str">
+      <c r="R27" s="53" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S27" s="62" t="str">
+      <c r="S27" s="55" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T27" s="47"/>
-      <c r="U27" s="48" t="str">
+      <c r="T27" s="40"/>
+      <c r="U27" s="41" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V27" s="49" t="str">
+      <c r="V27" s="42" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W27" s="48" t="str">
+      <c r="W27" s="41" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X27" s="50" t="str">
+      <c r="X27" s="43" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="24" t="str">
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA27" s="25" t="str">
+      <c r="AA27" s="21" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB27" s="24" t="str">
+      <c r="AB27" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC27" s="26" t="str">
+      <c r="AC27" s="22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48" t="str">
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="41" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF27" s="49" t="str">
+      <c r="AF27" s="42" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG27" s="48" t="str">
+      <c r="AG27" s="41" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH27" s="50" t="str">
+      <c r="AH27" s="43" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2617,76 +2619,76 @@
         <v>11</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" s="63">
+      <c r="N28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="56">
         <v>5</v>
       </c>
-      <c r="P28" s="73" t="str">
+      <c r="P28" s="66" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q28" s="65" t="str">
+      <c r="Q28" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Mechtronics</v>
       </c>
-      <c r="R28" s="64" t="str">
+      <c r="R28" s="57" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S28" s="66" t="str">
+      <c r="S28" s="59" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T28" s="51"/>
-      <c r="U28" s="52" t="str">
+      <c r="T28" s="44"/>
+      <c r="U28" s="45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V28" s="53" t="str">
+      <c r="V28" s="46" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W28" s="52" t="str">
+      <c r="W28" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X28" s="54" t="str">
+      <c r="X28" s="47" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="16" t="str">
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA28" s="17" t="str">
+      <c r="AA28" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB28" s="16" t="str">
+      <c r="AB28" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC28" s="18" t="str">
+      <c r="AC28" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52" t="str">
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF28" s="53" t="str">
+      <c r="AF28" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG28" s="52" t="str">
+      <c r="AG28" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH28" s="54" t="str">
+      <c r="AH28" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2719,76 +2721,76 @@
         <v>12</v>
       </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O29" s="29">
-        <v>2</v>
-      </c>
-      <c r="P29" s="72" t="str">
+      <c r="N29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="25">
+        <v>2</v>
+      </c>
+      <c r="P29" s="65" t="str">
         <f t="shared" si="6"/>
         <v>ENGL101</v>
       </c>
-      <c r="Q29" s="31" t="str">
+      <c r="Q29" s="27" t="str">
         <f t="shared" si="7"/>
         <v>Electronics</v>
       </c>
-      <c r="R29" s="30" t="str">
+      <c r="R29" s="26" t="str">
         <f t="shared" si="8"/>
         <v>James</v>
       </c>
-      <c r="S29" s="32" t="str">
+      <c r="S29" s="28" t="str">
         <f t="shared" si="9"/>
         <v>classroom</v>
       </c>
-      <c r="T29" s="51"/>
-      <c r="U29" s="52" t="str">
+      <c r="T29" s="44"/>
+      <c r="U29" s="45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V29" s="53" t="str">
+      <c r="V29" s="46" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W29" s="52" t="str">
+      <c r="W29" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X29" s="54" t="str">
+      <c r="X29" s="47" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="16" t="str">
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA29" s="17" t="str">
+      <c r="AA29" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB29" s="16" t="str">
+      <c r="AB29" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC29" s="18" t="str">
+      <c r="AC29" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52" t="str">
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF29" s="53" t="str">
+      <c r="AF29" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG29" s="52" t="str">
+      <c r="AG29" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH29" s="54" t="str">
+      <c r="AH29" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2806,74 +2808,74 @@
         <v>13</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="16" t="str">
+      <c r="N30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q30" s="17" t="str">
+      <c r="Q30" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R30" s="16" t="str">
+      <c r="R30" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S30" s="18" t="str">
+      <c r="S30" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T30" s="51"/>
-      <c r="U30" s="52" t="str">
+      <c r="T30" s="44"/>
+      <c r="U30" s="45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V30" s="53" t="str">
+      <c r="V30" s="46" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W30" s="52" t="str">
+      <c r="W30" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X30" s="54" t="str">
+      <c r="X30" s="47" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="16" t="str">
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA30" s="17" t="str">
+      <c r="AA30" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB30" s="16" t="str">
+      <c r="AB30" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC30" s="18" t="str">
+      <c r="AC30" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52" t="str">
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="45" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF30" s="53" t="str">
+      <c r="AF30" s="46" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG30" s="52" t="str">
+      <c r="AG30" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH30" s="54" t="str">
+      <c r="AH30" s="47" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -2891,128 +2893,128 @@
         <v>14</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20" t="str">
+      <c r="N31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q31" s="21" t="str">
+      <c r="Q31" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R31" s="20" t="str">
+      <c r="R31" s="16" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S31" s="22" t="str">
+      <c r="S31" s="18" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T31" s="55"/>
-      <c r="U31" s="56" t="str">
+      <c r="T31" s="48"/>
+      <c r="U31" s="49" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V31" s="57" t="str">
+      <c r="V31" s="50" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="W31" s="56" t="str">
+      <c r="W31" s="49" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="X31" s="58" t="str">
+      <c r="X31" s="51" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="20" t="str">
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="16" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA31" s="21" t="str">
+      <c r="AA31" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AB31" s="20" t="str">
+      <c r="AB31" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC31" s="22" t="str">
+      <c r="AC31" s="18" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="56" t="str">
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="49" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AF31" s="57" t="str">
+      <c r="AF31" s="50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG31" s="56" t="str">
+      <c r="AG31" s="49" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AH31" s="58" t="str">
+      <c r="AH31" s="51" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -3020,32 +3022,32 @@
       <c r="N34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="28">
-        <v>2</v>
-      </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
+      <c r="O34" s="24">
+        <v>2</v>
+      </c>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3059,7 +3061,7 @@
     </row>
     <row r="36" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M36" s="4">
         <v>2</v>
@@ -3073,7 +3075,7 @@
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M37">
         <v>3</v>
@@ -3087,7 +3089,7 @@
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M38" s="4">
         <v>4</v>

--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
   <si>
     <t>John</t>
   </si>
@@ -249,13 +249,34 @@
   </si>
   <si>
     <t>Room type</t>
+  </si>
+  <si>
+    <t>SbjClass</t>
+  </si>
+  <si>
+    <t>SBJ_Code</t>
+  </si>
+  <si>
+    <t>SBJ Req Period</t>
+  </si>
+  <si>
+    <t>SbjClass id</t>
+  </si>
+  <si>
+    <t>TG_ID</t>
+  </si>
+  <si>
+    <t>INT_ID</t>
+  </si>
+  <si>
+    <t>Room_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +326,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -344,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -500,11 +529,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -729,6 +838,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,11 +862,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="N14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1248,7 @@
   <sheetData>
     <row r="3" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -1132,31 +1289,31 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="76">
+        <v>1</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="76">
+        <v>2</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="82">
-        <v>2</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="82">
-        <v>1</v>
-      </c>
-      <c r="N4" s="82">
+      <c r="M4" s="76">
+        <v>1</v>
+      </c>
+      <c r="N4" s="76">
         <v>5</v>
       </c>
-      <c r="O4" s="82">
+      <c r="O4" s="76">
         <v>2</v>
       </c>
       <c r="P4" s="5"/>
@@ -1175,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
@@ -1216,31 +1373,31 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="82">
-        <v>2</v>
-      </c>
-      <c r="H6" s="82" t="s">
+      <c r="G6" s="76">
+        <v>3</v>
+      </c>
+      <c r="H6" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="76">
         <v>4</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="82">
-        <v>1</v>
-      </c>
-      <c r="N6" s="82">
+      <c r="M6" s="76">
+        <v>1</v>
+      </c>
+      <c r="N6" s="76">
         <v>5</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="76">
         <v>3</v>
       </c>
       <c r="P6" s="5"/>
@@ -1259,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
@@ -1300,38 +1457,38 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="82">
-        <v>4</v>
-      </c>
-      <c r="H8" s="82" t="s">
+      <c r="G8" s="76">
+        <v>5</v>
+      </c>
+      <c r="H8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="82">
-        <v>2</v>
-      </c>
-      <c r="J8" s="82" t="s">
+      <c r="I8" s="76">
+        <v>2</v>
+      </c>
+      <c r="J8" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="82">
-        <v>1</v>
-      </c>
-      <c r="N8" s="82">
+      <c r="M8" s="76">
+        <v>1</v>
+      </c>
+      <c r="N8" s="76">
         <v>5</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="76">
         <v>2</v>
       </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -1426,34 +1583,34 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="76" t="s">
+      <c r="O15" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="79" t="s">
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="76" t="s">
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="79" t="s">
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="81"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="83"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
@@ -1547,7 +1704,7 @@
         <v>58</v>
       </c>
       <c r="O17" s="52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" s="64" t="str">
         <f>IF(ISBLANK($O17),"",VLOOKUP($O17,$G$4:$L$9,2,))</f>
@@ -1583,7 +1740,7 @@
         <v/>
       </c>
       <c r="Y17" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="72" t="str">
         <f>IF(ISBLANK($Y17),"",VLOOKUP($Y17,$G$4:$L$9,2,))</f>
@@ -1619,7 +1776,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J18" s="3">
         <f t="shared" ref="J18:J31" si="4">QUOTIENT(L18,5)+1</f>
         <v>1</v>
@@ -1670,7 +1827,7 @@
         <v/>
       </c>
       <c r="Y18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="73" t="str">
         <f t="shared" ref="Z18:Z31" si="10">IF(ISBLANK($Y18),"",VLOOKUP($Y18,$G$4:$L$9,2,))</f>
@@ -1706,7 +1863,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1895,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="65" t="str">
         <f t="shared" si="6"/>
@@ -1840,7 +1997,7 @@
         <v>61</v>
       </c>
       <c r="O20" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="70" t="str">
         <f t="shared" si="6"/>
@@ -1877,7 +2034,7 @@
         <v/>
       </c>
       <c r="Y20" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="74" t="str">
         <f t="shared" si="10"/>
@@ -1945,7 +2102,7 @@
         <v>62</v>
       </c>
       <c r="O21" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="71" t="str">
         <f t="shared" si="6"/>
@@ -1982,7 +2139,7 @@
         <v/>
       </c>
       <c r="Y21" s="60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z21" s="75" t="str">
         <f t="shared" si="10"/>
@@ -2019,15 +2176,15 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="J22" s="83">
+      <c r="J22" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K22" s="83">
+      <c r="K22" s="77">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L22" s="83">
+      <c r="L22" s="77">
         <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -2037,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="O22" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="68" t="str">
         <f t="shared" si="6"/>
@@ -2109,15 +2266,15 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="J23" s="83">
+      <c r="J23" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K23" s="83">
+      <c r="K23" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L23" s="83">
+      <c r="L23" s="77">
         <v>6</v>
       </c>
       <c r="M23" s="3"/>
@@ -2125,7 +2282,7 @@
         <v>59</v>
       </c>
       <c r="O23" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P23" s="69" t="str">
         <f t="shared" si="6"/>
@@ -2197,15 +2354,15 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="J24" s="83">
+      <c r="J24" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K24" s="83">
+      <c r="K24" s="77">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="L24" s="83">
+      <c r="L24" s="77">
         <v>7</v>
       </c>
       <c r="M24" s="3"/>
@@ -2213,7 +2370,7 @@
         <v>60</v>
       </c>
       <c r="O24" s="56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" s="66" t="str">
         <f t="shared" si="6"/>
@@ -2283,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2299,15 +2456,15 @@
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J25" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K25" s="83">
+      <c r="K25" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L25" s="83">
+      <c r="L25" s="77">
         <v>8</v>
       </c>
       <c r="M25" s="3"/>
@@ -2315,7 +2472,7 @@
         <v>61</v>
       </c>
       <c r="O25" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" s="65" t="str">
         <f t="shared" si="6"/>
@@ -2385,7 +2542,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2401,15 +2558,15 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K26" s="83">
+      <c r="K26" s="77">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L26" s="83">
+      <c r="L26" s="77">
         <v>9</v>
       </c>
       <c r="M26" s="3"/>
@@ -2417,7 +2574,7 @@
         <v>62</v>
       </c>
       <c r="O26" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="67" t="str">
         <f t="shared" si="6"/>
@@ -2521,7 +2678,7 @@
         <v>58</v>
       </c>
       <c r="O27" s="52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="64" t="str">
         <f t="shared" si="6"/>
@@ -2623,7 +2780,7 @@
         <v>59</v>
       </c>
       <c r="O28" s="56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" s="66" t="str">
         <f t="shared" si="6"/>
@@ -2693,7 +2850,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2725,7 +2882,7 @@
         <v>60</v>
       </c>
       <c r="O29" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29" s="65" t="str">
         <f t="shared" si="6"/>
@@ -3148,14 +3305,692 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Z19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="9" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="38" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="96">
+        <v>1</v>
+      </c>
+      <c r="H4" s="97">
+        <v>1</v>
+      </c>
+      <c r="I4" s="98" t="str">
+        <f>IF(ISBLANK($H4),"",VLOOKUP($H4,$A$13:$D$15,2,))</f>
+        <v>MATH101</v>
+      </c>
+      <c r="J4" s="99">
+        <f>IF(ISBLANK($H4),"",VLOOKUP($H4,$A$13:$E$15,4,))</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="98">
+        <v>1</v>
+      </c>
+      <c r="L4" s="96" t="str">
+        <f>IF(ISBLANK($K4),"",VLOOKUP($K4,$A$20:$D$21,2,))</f>
+        <v>Electronics</v>
+      </c>
+      <c r="M4" s="97">
+        <v>1</v>
+      </c>
+      <c r="N4" s="99" t="str">
+        <f>IF(ISBLANK($M4),"",VLOOKUP($M4,$A$5:$D$8,2,))</f>
+        <v>John</v>
+      </c>
+      <c r="O4" s="98">
+        <v>3</v>
+      </c>
+      <c r="P4" s="96" t="str">
+        <f>IF(ISBLANK($O4),"",VLOOKUP($O4,$A$26:$D$29,2,))</f>
+        <v>ComLab 1</v>
+      </c>
+      <c r="Q4" s="76">
+        <v>1</v>
+      </c>
+      <c r="R4" s="76">
+        <v>5</v>
+      </c>
+      <c r="S4" s="76">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="90">
+        <v>2</v>
+      </c>
+      <c r="I5" s="91" t="str">
+        <f t="shared" ref="I5:I9" si="0">IF(ISBLANK($H5),"",VLOOKUP($H5,$A$13:$D$15,2,))</f>
+        <v>POLSCI101</v>
+      </c>
+      <c r="J5" s="92">
+        <f t="shared" ref="J5:J9" si="1">IF(ISBLANK($H5),"",VLOOKUP($H5,$A$13:$E$15,4,))</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="91">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L9" si="2">IF(ISBLANK($K5),"",VLOOKUP($K5,$A$20:$D$21,2,))</f>
+        <v>Electronics</v>
+      </c>
+      <c r="M5" s="90">
+        <v>2</v>
+      </c>
+      <c r="N5" s="92" t="str">
+        <f t="shared" ref="N5:P9" si="3">IF(ISBLANK($M5),"",VLOOKUP($M5,$A$5:$D$8,2,))</f>
+        <v xml:space="preserve">Paul
+</v>
+      </c>
+      <c r="O5" s="91">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P9" si="4">IF(ISBLANK($O5),"",VLOOKUP($O5,$A$26:$D$29,2,))</f>
+        <v>Room 2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="76">
+        <v>3</v>
+      </c>
+      <c r="H6" s="87">
+        <v>3</v>
+      </c>
+      <c r="I6" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="J6" s="89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="88">
+        <v>1</v>
+      </c>
+      <c r="L6" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>Electronics</v>
+      </c>
+      <c r="M6" s="87">
+        <v>3</v>
+      </c>
+      <c r="N6" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v>James</v>
+      </c>
+      <c r="O6" s="88">
+        <v>1</v>
+      </c>
+      <c r="P6" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v>Room 1</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>1</v>
+      </c>
+      <c r="R6" s="76">
+        <v>5</v>
+      </c>
+      <c r="S6" s="76">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="90">
+        <v>1</v>
+      </c>
+      <c r="I7" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>MATH101</v>
+      </c>
+      <c r="J7" s="92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="91">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="M7" s="90">
+        <v>1</v>
+      </c>
+      <c r="N7" s="92" t="str">
+        <f t="shared" si="3"/>
+        <v>John</v>
+      </c>
+      <c r="O7" s="91">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ComLab 1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="76">
+        <v>5</v>
+      </c>
+      <c r="H8" s="87">
+        <v>2</v>
+      </c>
+      <c r="I8" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>POLSCI101</v>
+      </c>
+      <c r="J8" s="89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="88">
+        <v>2</v>
+      </c>
+      <c r="L8" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="M8" s="87">
+        <v>2</v>
+      </c>
+      <c r="N8" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Paul
+</v>
+      </c>
+      <c r="O8" s="88">
+        <v>1</v>
+      </c>
+      <c r="P8" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v>Room 1</v>
+      </c>
+      <c r="Q8" s="76">
+        <v>1</v>
+      </c>
+      <c r="R8" s="76">
+        <v>5</v>
+      </c>
+      <c r="S8" s="76">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="93">
+        <v>3</v>
+      </c>
+      <c r="I9" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>ENGL101</v>
+      </c>
+      <c r="J9" s="95">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="91">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Mechtronics</v>
+      </c>
+      <c r="M9" s="93">
+        <v>3</v>
+      </c>
+      <c r="N9" s="95" t="str">
+        <f t="shared" si="3"/>
+        <v>James</v>
+      </c>
+      <c r="O9" s="91">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Room 1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10">
+      <formula1>$C$33:$C$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:O10">
+      <formula1>$B$5:$B$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:M10">
+      <formula1>$B$20:$B$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:K10">
+      <formula1>$B$13:$B$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H9">
+      <formula1>$A$13:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K9">
+      <formula1>$A$20:$A$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M9">
+      <formula1>$A$5:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O9">
+      <formula1>$A$26:$A$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -844,6 +844,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,54 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="N14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="5"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2"/>
     </row>
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -1583,34 +1583,34 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="78" t="s">
+      <c r="O15" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="81" t="s">
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="78" t="s">
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="81" t="s">
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="83"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="99"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
@@ -3307,12 +3307,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,28 +3337,28 @@
       <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="85" t="s">
         <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="85" t="s">
         <v>80</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -3388,38 +3388,38 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="96">
-        <v>1</v>
-      </c>
-      <c r="H4" s="97">
-        <v>1</v>
-      </c>
-      <c r="I4" s="98" t="str">
+      <c r="G4" s="90">
+        <v>1</v>
+      </c>
+      <c r="H4" s="91">
+        <v>1</v>
+      </c>
+      <c r="I4" s="92" t="str">
         <f>IF(ISBLANK($H4),"",VLOOKUP($H4,$A$13:$D$15,2,))</f>
         <v>MATH101</v>
       </c>
-      <c r="J4" s="99">
+      <c r="J4" s="93">
         <f>IF(ISBLANK($H4),"",VLOOKUP($H4,$A$13:$E$15,4,))</f>
         <v>2</v>
       </c>
-      <c r="K4" s="98">
-        <v>1</v>
-      </c>
-      <c r="L4" s="96" t="str">
+      <c r="K4" s="92">
+        <v>1</v>
+      </c>
+      <c r="L4" s="90" t="str">
         <f>IF(ISBLANK($K4),"",VLOOKUP($K4,$A$20:$D$21,2,))</f>
         <v>Electronics</v>
       </c>
-      <c r="M4" s="97">
-        <v>1</v>
-      </c>
-      <c r="N4" s="99" t="str">
+      <c r="M4" s="91">
+        <v>1</v>
+      </c>
+      <c r="N4" s="93" t="str">
         <f>IF(ISBLANK($M4),"",VLOOKUP($M4,$A$5:$D$8,2,))</f>
         <v>John</v>
       </c>
-      <c r="O4" s="98">
+      <c r="O4" s="92">
         <v>3</v>
       </c>
-      <c r="P4" s="96" t="str">
+      <c r="P4" s="90" t="str">
         <f>IF(ISBLANK($O4),"",VLOOKUP($O4,$A$26:$D$29,2,))</f>
         <v>ComLab 1</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="5"/>
     </row>
@@ -3450,33 +3450,33 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="90">
-        <v>2</v>
-      </c>
-      <c r="I5" s="91" t="str">
+      <c r="H5" s="84">
+        <v>2</v>
+      </c>
+      <c r="I5" s="85" t="str">
         <f t="shared" ref="I5:I9" si="0">IF(ISBLANK($H5),"",VLOOKUP($H5,$A$13:$D$15,2,))</f>
         <v>POLSCI101</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="86">
         <f t="shared" ref="J5:J9" si="1">IF(ISBLANK($H5),"",VLOOKUP($H5,$A$13:$E$15,4,))</f>
         <v>2</v>
       </c>
-      <c r="K5" s="91">
+      <c r="K5" s="85">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" ref="L5:L9" si="2">IF(ISBLANK($K5),"",VLOOKUP($K5,$A$20:$D$21,2,))</f>
         <v>Electronics</v>
       </c>
-      <c r="M5" s="90">
-        <v>2</v>
-      </c>
-      <c r="N5" s="92" t="str">
-        <f t="shared" ref="N5:P9" si="3">IF(ISBLANK($M5),"",VLOOKUP($M5,$A$5:$D$8,2,))</f>
+      <c r="M5" s="84">
+        <v>2</v>
+      </c>
+      <c r="N5" s="86" t="str">
+        <f t="shared" ref="N5:N9" si="3">IF(ISBLANK($M5),"",VLOOKUP($M5,$A$5:$D$8,2,))</f>
         <v xml:space="preserve">Paul
 </v>
       </c>
-      <c r="O5" s="91">
+      <c r="O5" s="85">
         <v>2</v>
       </c>
       <c r="P5" s="1" t="str">
@@ -3490,7 +3490,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="2"/>
     </row>
@@ -3510,32 +3510,32 @@
       <c r="G6" s="76">
         <v>3</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="81">
         <v>3</v>
       </c>
-      <c r="I6" s="88" t="str">
+      <c r="I6" s="82" t="str">
         <f t="shared" si="0"/>
         <v>ENGL101</v>
       </c>
-      <c r="J6" s="89">
+      <c r="J6" s="83">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="82">
         <v>1</v>
       </c>
       <c r="L6" s="76" t="str">
         <f t="shared" si="2"/>
         <v>Electronics</v>
       </c>
-      <c r="M6" s="87">
+      <c r="M6" s="81">
         <v>3</v>
       </c>
-      <c r="N6" s="89" t="str">
+      <c r="N6" s="83" t="str">
         <f t="shared" si="3"/>
         <v>James</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="82">
         <v>1</v>
       </c>
       <c r="P6" s="76" t="str">
@@ -3569,32 +3569,32 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="90">
-        <v>1</v>
-      </c>
-      <c r="I7" s="91" t="str">
+      <c r="H7" s="84">
+        <v>1</v>
+      </c>
+      <c r="I7" s="85" t="str">
         <f t="shared" si="0"/>
         <v>MATH101</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="86">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="85">
         <v>2</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Mechtronics</v>
       </c>
-      <c r="M7" s="90">
-        <v>1</v>
-      </c>
-      <c r="N7" s="92" t="str">
+      <c r="M7" s="84">
+        <v>1</v>
+      </c>
+      <c r="N7" s="86" t="str">
         <f t="shared" si="3"/>
         <v>John</v>
       </c>
-      <c r="O7" s="91">
+      <c r="O7" s="85">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="str">
@@ -3608,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="2"/>
     </row>
@@ -3628,33 +3628,33 @@
       <c r="G8" s="76">
         <v>5</v>
       </c>
-      <c r="H8" s="87">
-        <v>2</v>
-      </c>
-      <c r="I8" s="88" t="str">
+      <c r="H8" s="81">
+        <v>2</v>
+      </c>
+      <c r="I8" s="82" t="str">
         <f t="shared" si="0"/>
         <v>POLSCI101</v>
       </c>
-      <c r="J8" s="89">
+      <c r="J8" s="83">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="82">
         <v>2</v>
       </c>
       <c r="L8" s="76" t="str">
         <f t="shared" si="2"/>
         <v>Mechtronics</v>
       </c>
-      <c r="M8" s="87">
-        <v>2</v>
-      </c>
-      <c r="N8" s="89" t="str">
+      <c r="M8" s="81">
+        <v>2</v>
+      </c>
+      <c r="N8" s="83" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Paul
 </v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="82">
         <v>1</v>
       </c>
       <c r="P8" s="76" t="str">
@@ -3668,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="5"/>
     </row>
@@ -3676,32 +3676,32 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="87">
         <v>3</v>
       </c>
-      <c r="I9" s="94" t="str">
+      <c r="I9" s="88" t="str">
         <f t="shared" si="0"/>
         <v>ENGL101</v>
       </c>
-      <c r="J9" s="95">
+      <c r="J9" s="89">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K9" s="91">
+      <c r="K9" s="85">
         <v>2</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Mechtronics</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="87">
         <v>3</v>
       </c>
-      <c r="N9" s="95" t="str">
+      <c r="N9" s="89" t="str">
         <f t="shared" si="3"/>
         <v>James</v>
       </c>
-      <c r="O9" s="91">
+      <c r="O9" s="85">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="str">

--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="91">
   <si>
     <t>John</t>
   </si>
@@ -270,12 +270,44 @@
   </si>
   <si>
     <t>Room_ID</t>
+  </si>
+  <si>
+    <t>MT_ID</t>
+  </si>
+  <si>
+    <t>T_Slot</t>
+  </si>
+  <si>
+    <t>SC:1 MATH101ElectronicsJohnComLab 1 RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:2 POLSCI101ElectronicsPaul
+Room 2 RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:3 ENGL101ElectronicsJamesRoom 1 RQ: 3</t>
+  </si>
+  <si>
+    <t>SC:4 MATH101MechtronicsJohnComLab 1 RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:5 POLSCI101MechtronicsPaul
+Room 1 RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:6 ENGL101MechtronicsJamesRoom 1 RQ: 3</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -613,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -892,6 +930,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,6 +950,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AH40"/>
+  <dimension ref="A3:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,19 +1297,19 @@
       <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="94" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="94" t="s">
         <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1583,34 +1630,34 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="94" t="s">
+      <c r="O15" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="97" t="s">
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="94" t="s">
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="97" t="s">
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="100"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
@@ -1776,7 +1823,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="J18" s="3">
         <f t="shared" ref="J18:J31" si="4">QUOTIENT(L18,5)+1</f>
         <v>1</v>
@@ -1863,7 +1910,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2176,6 +2223,9 @@
       </c>
     </row>
     <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="J22" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2266,6 +2316,9 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>7</v>
+      </c>
       <c r="J23" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2354,6 +2407,9 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>10</v>
+      </c>
       <c r="J24" s="77">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -2440,7 +2496,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2455,6 +2511,9 @@
       </c>
       <c r="E25" t="s">
         <v>38</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
       </c>
       <c r="J25" s="77">
         <f t="shared" si="4"/>
@@ -2542,7 +2601,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2850,7 +2909,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3248,6 +3307,20 @@
       <c r="C38" t="s">
         <v>50</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H40" si="22">G39-(G39-G38)</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>J39-(J39-J38)</f>
+        <v>0</v>
+      </c>
       <c r="M38" s="4">
         <v>4</v>
       </c>
@@ -3262,6 +3335,20 @@
       <c r="C39" t="s">
         <v>31</v>
       </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f>J40-(J40-J39)</f>
+        <v>1</v>
+      </c>
       <c r="M39">
         <v>5</v>
       </c>
@@ -3275,6 +3362,101 @@
     <row r="40" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <f>SUM(J38:J39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <f>G42-(G42-G41)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f>SUM(G38:G41)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44:I47" si="23">H45-(H45-H44)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>H44-2</f>
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" ref="H46:H48" si="24">H45-2</f>
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f>H49-(H49-H48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>SUM(H44:H48)</f>
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>89</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>90</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3305,14 +3487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T40"/>
+  <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G1" sqref="G1"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+    <sheetView showGridLines="0" topLeftCell="G9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,6 +3500,7 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
@@ -3332,8 +3511,8 @@
     <col min="19" max="38" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
@@ -3375,7 +3554,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3433,8 +3612,12 @@
         <v>1</v>
       </c>
       <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" t="str">
+        <f>CONCATENATE("SC:",G4," ",I4,L4,N4,P4," RQ: ",S4)</f>
+        <v>SC:1 MATH101ElectronicsJohnComLab 1 RQ: 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3493,8 +3676,13 @@
         <v>1</v>
       </c>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:V9" si="5">CONCATENATE("SC:",G5," ",I5,L5,N5,P5," RQ: ",S5)</f>
+        <v>SC:2 POLSCI101ElectronicsPaul
+Room 2 RQ: 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3552,8 +3740,12 @@
         <v>3</v>
       </c>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" t="str">
+        <f t="shared" si="5"/>
+        <v>SC:3 ENGL101ElectronicsJamesRoom 1 RQ: 3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3611,8 +3803,12 @@
         <v>1</v>
       </c>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v>SC:4 MATH101MechtronicsJohnComLab 1 RQ: 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3671,8 +3867,13 @@
         <v>1</v>
       </c>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v>SC:5 POLSCI101MechtronicsPaul
+Room 1 RQ: 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -3718,8 +3919,12 @@
         <v>3</v>
       </c>
       <c r="T9" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v>SC:6 ENGL101MechtronicsJamesRoom 1 RQ: 3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3736,7 +3941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3753,7 +3958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3769,8 +3974,18 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3786,8 +4001,54 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="102">
+        <v>1</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="102">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G16" s="102">
+        <v>2</v>
+      </c>
+      <c r="H16" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="102">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="102">
+        <v>3</v>
+      </c>
+      <c r="H17" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="102">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="102">
+        <v>4</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="102">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3803,8 +4064,18 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="102">
+        <v>5</v>
+      </c>
+      <c r="H19" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="102">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3820,8 +4091,18 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="102">
+        <v>6</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="102">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3837,8 +4118,54 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="102">
+        <v>7</v>
+      </c>
+      <c r="H21" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="102">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="102">
+        <v>8</v>
+      </c>
+      <c r="H22" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="102">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3854,8 +4181,18 @@
       <c r="E25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="2">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3871,8 +4208,18 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3888,8 +4235,18 @@
       <c r="E27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3905,8 +4262,18 @@
       <c r="E28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="2">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3922,6 +4289,28 @@
       <c r="E29" t="s">
         <v>22</v>
       </c>
+      <c r="G29" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="101"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="2">
+        <v>11</v>
+      </c>
+      <c r="J30" s="101"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
@@ -3964,7 +4353,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <sortState ref="G15:I30">
+    <sortCondition ref="H14"/>
+  </sortState>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10">
       <formula1>$C$33:$C$40</formula1>
     </dataValidation>
@@ -3989,6 +4381,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O9">
       <formula1>$A$26:$A$29</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H30">
+      <formula1>$V$4:$V$9</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="108">
   <si>
     <t>John</t>
   </si>
@@ -302,13 +303,64 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721 | TOTAL CONFLICTS: 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group </t>
+  </si>
+  <si>
+    <t>ID CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**** </t>
+  </si>
+  <si>
+    <t>Study Break</t>
+  </si>
+  <si>
+    <t>POLSC101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2235 | TOTAL CONFLICTS: 0 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +418,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +481,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -647,11 +748,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,6 +1071,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,11 +1095,128 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,11 +1534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1293,7 +1554,7 @@
     <col min="15" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="60">
       <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1323,7 +1584,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1626,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="30">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1407,7 +1668,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1449,7 +1710,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="30">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1491,7 +1752,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="30">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1533,7 +1794,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="30">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -1563,7 +1824,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1597,7 +1858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="15.75" thickBot="1">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1614,7 +1875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1630,36 +1891,36 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="95" t="s">
+      <c r="O15" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="98" t="s">
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="95" t="s">
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="98" t="s">
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="100"/>
-    </row>
-    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="102"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" thickBot="1">
       <c r="J16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="30">
       <c r="J17" s="3">
         <f>QUOTIENT(L17,5)+1</f>
         <v>1</v>
@@ -1823,7 +2084,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="30">
       <c r="J18" s="3">
         <f t="shared" ref="J18:J31" si="4">QUOTIENT(L18,5)+1</f>
         <v>1</v>
@@ -1910,7 +2171,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2012,7 +2273,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="30">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2117,7 +2378,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="30.75" thickBot="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2222,7 +2483,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="30">
       <c r="H22">
         <v>0</v>
       </c>
@@ -2315,7 +2576,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="30">
       <c r="H23">
         <v>7</v>
       </c>
@@ -2406,7 +2667,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="30">
       <c r="H24">
         <v>10</v>
       </c>
@@ -2496,7 +2757,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2601,7 +2862,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="15.75" thickBot="1">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2703,7 +2964,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="30">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2807,7 +3068,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="30">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2909,7 +3170,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3011,7 +3272,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34">
       <c r="J30" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3096,7 +3357,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="15.75" thickBot="1">
       <c r="J31" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3181,7 +3442,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34">
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -3203,7 +3464,7 @@
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -3228,7 +3489,7 @@
       <c r="AG33" s="23"/>
       <c r="AH33" s="23"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:34">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -3261,7 +3522,7 @@
       <c r="AG34" s="23"/>
       <c r="AH34" s="23"/>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:34">
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -3275,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -3289,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:34">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -3303,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:34">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -3331,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:34">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -3359,7 +3620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:34">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:34">
       <c r="G41">
         <v>11</v>
       </c>
@@ -3384,13 +3645,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34">
       <c r="G42">
         <f>SUM(G38:G41)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34">
       <c r="H44">
         <v>9</v>
       </c>
@@ -3399,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34">
       <c r="H45">
         <f>H44-2</f>
         <v>7</v>
@@ -3409,7 +3670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34">
       <c r="H46">
         <f t="shared" ref="H46:H48" si="24">H45-2</f>
         <v>5</v>
@@ -3419,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:34">
       <c r="H47">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -3429,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:34">
       <c r="H48">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -3439,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:14">
       <c r="H49">
         <f>SUM(H44:H48)</f>
         <v>25</v>
@@ -3451,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:14">
       <c r="L50" t="s">
         <v>90</v>
       </c>
@@ -3489,11 +3750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G21" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="H19" sqref="H19:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3511,8 +3772,8 @@
     <col min="19" max="38" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:22" ht="60">
       <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,7 +3815,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="30" customHeight="1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3617,7 +3878,7 @@
         <v>SC:1 MATH101ElectronicsJohnComLab 1 RQ: 1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="30" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3682,7 +3943,7 @@
 Room 2 RQ: 1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" customHeight="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3745,7 +4006,7 @@
         <v>SC:3 ENGL101ElectronicsJamesRoom 1 RQ: 3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="30" customHeight="1">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3808,7 +4069,7 @@
         <v>SC:4 MATH101MechtronicsJohnComLab 1 RQ: 1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="30" customHeight="1">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3873,7 +4134,7 @@
 Room 1 RQ: 1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -3924,7 +4185,7 @@
         <v>SC:6 ENGL101MechtronicsJamesRoom 1 RQ: 3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3941,7 +4202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3958,7 +4219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3985,7 +4246,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4001,54 +4262,54 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="102">
-        <v>1</v>
-      </c>
-      <c r="H15" s="102" t="s">
+      <c r="G15" s="96">
+        <v>1</v>
+      </c>
+      <c r="H15" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I15" s="96">
         <v>0</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G16" s="102">
-        <v>2</v>
-      </c>
-      <c r="H16" s="102" t="s">
+    <row r="16" spans="1:22">
+      <c r="G16" s="96">
+        <v>2</v>
+      </c>
+      <c r="H16" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="102">
+      <c r="I16" s="96">
         <v>1</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="102">
-        <v>3</v>
-      </c>
-      <c r="H17" s="102" t="s">
+    <row r="17" spans="1:10">
+      <c r="G17" s="96">
+        <v>3</v>
+      </c>
+      <c r="H17" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="102">
+      <c r="I17" s="96">
         <v>3</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="102">
-        <v>4</v>
-      </c>
-      <c r="H18" s="102" t="s">
+    <row r="18" spans="1:10">
+      <c r="G18" s="96">
+        <v>4</v>
+      </c>
+      <c r="H18" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="102">
+      <c r="I18" s="96">
         <v>4</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4064,18 +4325,18 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="96">
         <v>5</v>
       </c>
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="102">
+      <c r="I19" s="96">
         <v>2</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4091,18 +4352,18 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G20" s="96">
         <v>6</v>
       </c>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="102">
+      <c r="I20" s="96">
         <v>8</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4118,30 +4379,30 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="102">
+      <c r="G21" s="96">
         <v>7</v>
       </c>
-      <c r="H21" s="102" t="s">
+      <c r="H21" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="102">
+      <c r="I21" s="96">
         <v>9</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="102">
+    <row r="22" spans="1:10">
+      <c r="G22" s="96">
         <v>8</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="102">
+      <c r="I22" s="96">
         <v>12</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="G23" s="2">
         <v>9</v>
       </c>
@@ -4153,7 +4414,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="G24" s="2">
         <v>10</v>
       </c>
@@ -4165,7 +4426,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4192,7 +4453,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4219,7 +4480,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4246,7 +4507,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4273,7 +4534,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4298,9 +4559,9 @@
       <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="101"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="95"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="G30" s="2">
         <v>16</v>
       </c>
@@ -4310,44 +4571,44 @@
       <c r="I30" s="2">
         <v>11</v>
       </c>
-      <c r="J30" s="101"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="J30" s="95"/>
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -4388,4 +4649,1323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:W29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:23" ht="17.25">
+      <c r="C1" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="3:23">
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="3:23">
+      <c r="M3" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="109"/>
+    </row>
+    <row r="5" spans="3:23" ht="30">
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23">
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" ht="15.75" thickBot="1">
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" ht="18.75">
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="113">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="112">
+        <v>4</v>
+      </c>
+      <c r="N8" s="95">
+        <v>3</v>
+      </c>
+      <c r="O8" s="123">
+        <v>0</v>
+      </c>
+      <c r="P8" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="95">
+        <v>1</v>
+      </c>
+      <c r="R8" s="95">
+        <v>3</v>
+      </c>
+      <c r="S8" s="95">
+        <v>3</v>
+      </c>
+      <c r="T8" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="95"/>
+      <c r="W8" s="95"/>
+    </row>
+    <row r="9" spans="3:23" ht="18.75">
+      <c r="C9" s="103">
+        <v>13</v>
+      </c>
+      <c r="D9" s="103">
+        <v>6</v>
+      </c>
+      <c r="E9" s="114">
+        <v>1</v>
+      </c>
+      <c r="F9" s="103">
+        <v>2</v>
+      </c>
+      <c r="G9" s="103">
+        <v>2</v>
+      </c>
+      <c r="H9" s="103">
+        <v>3</v>
+      </c>
+      <c r="I9" s="103">
+        <v>3</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="132">
+        <v>14</v>
+      </c>
+      <c r="N9" s="133">
+        <v>6</v>
+      </c>
+      <c r="O9" s="134">
+        <v>1</v>
+      </c>
+      <c r="P9" s="133">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="133">
+        <v>2</v>
+      </c>
+      <c r="R9" s="133">
+        <v>3</v>
+      </c>
+      <c r="S9" s="133">
+        <v>3</v>
+      </c>
+      <c r="T9" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="W9" s="95"/>
+    </row>
+    <row r="10" spans="3:23" ht="18.75">
+      <c r="C10" s="103">
+        <v>18</v>
+      </c>
+      <c r="D10" s="103">
+        <v>7</v>
+      </c>
+      <c r="E10" s="114">
+        <v>1</v>
+      </c>
+      <c r="F10" s="103">
+        <v>4</v>
+      </c>
+      <c r="G10" s="103">
+        <v>1</v>
+      </c>
+      <c r="H10" s="103">
+        <v>5</v>
+      </c>
+      <c r="I10" s="103">
+        <v>4</v>
+      </c>
+      <c r="J10" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="132">
+        <v>16</v>
+      </c>
+      <c r="N10" s="133">
+        <v>7</v>
+      </c>
+      <c r="O10" s="134">
+        <v>1</v>
+      </c>
+      <c r="P10" s="133">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="133">
+        <v>1</v>
+      </c>
+      <c r="R10" s="133">
+        <v>5</v>
+      </c>
+      <c r="S10" s="133">
+        <v>4</v>
+      </c>
+      <c r="T10" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="95"/>
+      <c r="W10" s="95"/>
+    </row>
+    <row r="11" spans="3:23" ht="18.75">
+      <c r="C11" s="96">
+        <v>6</v>
+      </c>
+      <c r="D11" s="96">
+        <v>3</v>
+      </c>
+      <c r="E11" s="115">
+        <v>3</v>
+      </c>
+      <c r="F11" s="96">
+        <v>2</v>
+      </c>
+      <c r="G11" s="96">
+        <v>1</v>
+      </c>
+      <c r="H11" s="96">
+        <v>3</v>
+      </c>
+      <c r="I11" s="96">
+        <v>3</v>
+      </c>
+      <c r="J11" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="112">
+        <v>15</v>
+      </c>
+      <c r="N11" s="95">
+        <v>6</v>
+      </c>
+      <c r="O11" s="124">
+        <v>2</v>
+      </c>
+      <c r="P11" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="95">
+        <v>2</v>
+      </c>
+      <c r="R11" s="95">
+        <v>3</v>
+      </c>
+      <c r="S11" s="95">
+        <v>3</v>
+      </c>
+      <c r="T11" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="95"/>
+      <c r="W11" s="95"/>
+    </row>
+    <row r="12" spans="3:23" ht="18.75">
+      <c r="C12" s="96">
+        <v>21</v>
+      </c>
+      <c r="D12" s="96">
+        <v>8</v>
+      </c>
+      <c r="E12" s="115">
+        <v>3</v>
+      </c>
+      <c r="F12" s="96">
+        <v>4</v>
+      </c>
+      <c r="G12" s="96">
+        <v>2</v>
+      </c>
+      <c r="H12" s="96">
+        <v>5</v>
+      </c>
+      <c r="I12" s="96">
+        <v>4</v>
+      </c>
+      <c r="J12" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="112">
+        <v>0</v>
+      </c>
+      <c r="N12" s="95">
+        <v>1</v>
+      </c>
+      <c r="O12" s="124">
+        <v>3</v>
+      </c>
+      <c r="P12" s="95">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="95">
+        <v>1</v>
+      </c>
+      <c r="R12" s="95">
+        <v>4</v>
+      </c>
+      <c r="S12" s="95">
+        <v>1</v>
+      </c>
+      <c r="T12" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="95"/>
+      <c r="W12" s="95"/>
+    </row>
+    <row r="13" spans="3:23" ht="18.75">
+      <c r="C13" s="104">
+        <v>2</v>
+      </c>
+      <c r="D13" s="104">
+        <v>2</v>
+      </c>
+      <c r="E13" s="116">
+        <v>5</v>
+      </c>
+      <c r="F13" s="104">
+        <v>2</v>
+      </c>
+      <c r="G13" s="104">
+        <v>1</v>
+      </c>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104">
+        <v>2</v>
+      </c>
+      <c r="J13" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="129">
+        <v>21</v>
+      </c>
+      <c r="N13" s="130">
+        <v>8</v>
+      </c>
+      <c r="O13" s="131">
+        <v>4</v>
+      </c>
+      <c r="P13" s="130">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="130">
+        <v>2</v>
+      </c>
+      <c r="R13" s="130">
+        <v>5</v>
+      </c>
+      <c r="S13" s="130">
+        <v>4</v>
+      </c>
+      <c r="T13" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="95"/>
+      <c r="W13" s="95"/>
+    </row>
+    <row r="14" spans="3:23" ht="18.75">
+      <c r="C14" s="104">
+        <v>8</v>
+      </c>
+      <c r="D14" s="104">
+        <v>4</v>
+      </c>
+      <c r="E14" s="116">
+        <v>5</v>
+      </c>
+      <c r="F14" s="104">
+        <v>3</v>
+      </c>
+      <c r="G14" s="104">
+        <v>2</v>
+      </c>
+      <c r="H14" s="104">
+        <v>4</v>
+      </c>
+      <c r="I14" s="104">
+        <v>1</v>
+      </c>
+      <c r="J14" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="129">
+        <v>1</v>
+      </c>
+      <c r="N14" s="130">
+        <v>1</v>
+      </c>
+      <c r="O14" s="131">
+        <v>4</v>
+      </c>
+      <c r="P14" s="130">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="130">
+        <v>1</v>
+      </c>
+      <c r="R14" s="130">
+        <v>4</v>
+      </c>
+      <c r="S14" s="130">
+        <v>1</v>
+      </c>
+      <c r="T14" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="95"/>
+      <c r="W14" s="95"/>
+    </row>
+    <row r="15" spans="3:23" ht="18.75">
+      <c r="C15" s="105">
+        <v>9</v>
+      </c>
+      <c r="D15" s="105">
+        <v>4</v>
+      </c>
+      <c r="E15" s="117">
+        <v>6</v>
+      </c>
+      <c r="F15" s="105">
+        <v>3</v>
+      </c>
+      <c r="G15" s="105">
+        <v>2</v>
+      </c>
+      <c r="H15" s="105">
+        <v>4</v>
+      </c>
+      <c r="I15" s="105">
+        <v>1</v>
+      </c>
+      <c r="J15" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="112">
+        <v>13</v>
+      </c>
+      <c r="N15" s="95">
+        <v>6</v>
+      </c>
+      <c r="O15" s="124">
+        <v>5</v>
+      </c>
+      <c r="P15" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="95">
+        <v>2</v>
+      </c>
+      <c r="R15" s="95">
+        <v>3</v>
+      </c>
+      <c r="S15" s="95">
+        <v>3</v>
+      </c>
+      <c r="T15" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="95"/>
+      <c r="W15" s="95"/>
+    </row>
+    <row r="16" spans="3:23" ht="18.75">
+      <c r="C16" s="105">
+        <v>3</v>
+      </c>
+      <c r="D16" s="105">
+        <v>2</v>
+      </c>
+      <c r="E16" s="117">
+        <v>6</v>
+      </c>
+      <c r="F16" s="105">
+        <v>2</v>
+      </c>
+      <c r="G16" s="105">
+        <v>1</v>
+      </c>
+      <c r="H16" s="105">
+        <v>1</v>
+      </c>
+      <c r="I16" s="105">
+        <v>2</v>
+      </c>
+      <c r="J16" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="112">
+        <v>10</v>
+      </c>
+      <c r="N16" s="95">
+        <v>5</v>
+      </c>
+      <c r="O16" s="124">
+        <v>6</v>
+      </c>
+      <c r="P16" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="95">
+        <v>2</v>
+      </c>
+      <c r="R16" s="95">
+        <v>1</v>
+      </c>
+      <c r="S16" s="95">
+        <v>2</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="U16" s="95"/>
+      <c r="W16" s="95"/>
+    </row>
+    <row r="17" spans="3:23" ht="18.75">
+      <c r="C17" s="106">
+        <v>15</v>
+      </c>
+      <c r="D17" s="106">
+        <v>6</v>
+      </c>
+      <c r="E17" s="118">
+        <v>7</v>
+      </c>
+      <c r="F17" s="106">
+        <v>2</v>
+      </c>
+      <c r="G17" s="106">
+        <v>2</v>
+      </c>
+      <c r="H17" s="106">
+        <v>3</v>
+      </c>
+      <c r="I17" s="106">
+        <v>3</v>
+      </c>
+      <c r="J17" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="126">
+        <v>17</v>
+      </c>
+      <c r="N17" s="127">
+        <v>7</v>
+      </c>
+      <c r="O17" s="128">
+        <v>7</v>
+      </c>
+      <c r="P17" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="127">
+        <v>1</v>
+      </c>
+      <c r="R17" s="127">
+        <v>5</v>
+      </c>
+      <c r="S17" s="127">
+        <v>4</v>
+      </c>
+      <c r="T17" s="127" t="s">
+        <v>105</v>
+      </c>
+      <c r="U17" s="95"/>
+      <c r="W17" s="95"/>
+    </row>
+    <row r="18" spans="3:23" ht="18.75">
+      <c r="C18" s="106">
+        <v>16</v>
+      </c>
+      <c r="D18" s="106">
+        <v>7</v>
+      </c>
+      <c r="E18" s="118">
+        <v>7</v>
+      </c>
+      <c r="F18" s="106">
+        <v>4</v>
+      </c>
+      <c r="G18" s="106">
+        <v>1</v>
+      </c>
+      <c r="H18" s="106">
+        <v>5</v>
+      </c>
+      <c r="I18" s="106">
+        <v>4</v>
+      </c>
+      <c r="J18" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="126">
+        <v>11</v>
+      </c>
+      <c r="N18" s="127">
+        <v>5</v>
+      </c>
+      <c r="O18" s="128">
+        <v>7</v>
+      </c>
+      <c r="P18" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="127">
+        <v>2</v>
+      </c>
+      <c r="R18" s="127">
+        <v>1</v>
+      </c>
+      <c r="S18" s="127">
+        <v>2</v>
+      </c>
+      <c r="T18" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="95"/>
+      <c r="W18" s="95"/>
+    </row>
+    <row r="19" spans="3:23" ht="18.75">
+      <c r="C19" s="107">
+        <v>4</v>
+      </c>
+      <c r="D19" s="107">
+        <v>3</v>
+      </c>
+      <c r="E19" s="119">
+        <v>8</v>
+      </c>
+      <c r="F19" s="107">
+        <v>2</v>
+      </c>
+      <c r="G19" s="107">
+        <v>1</v>
+      </c>
+      <c r="H19" s="107">
+        <v>3</v>
+      </c>
+      <c r="I19" s="107">
+        <v>3</v>
+      </c>
+      <c r="J19" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="135">
+        <v>20</v>
+      </c>
+      <c r="N19" s="136">
+        <v>8</v>
+      </c>
+      <c r="O19" s="137">
+        <v>8</v>
+      </c>
+      <c r="P19" s="136">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="136">
+        <v>2</v>
+      </c>
+      <c r="R19" s="136">
+        <v>5</v>
+      </c>
+      <c r="S19" s="136">
+        <v>4</v>
+      </c>
+      <c r="T19" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="U19" s="95"/>
+      <c r="W19" s="95"/>
+    </row>
+    <row r="20" spans="3:23" ht="18.75">
+      <c r="C20" s="107">
+        <v>20</v>
+      </c>
+      <c r="D20" s="107">
+        <v>8</v>
+      </c>
+      <c r="E20" s="119">
+        <v>8</v>
+      </c>
+      <c r="F20" s="107">
+        <v>4</v>
+      </c>
+      <c r="G20" s="107">
+        <v>2</v>
+      </c>
+      <c r="H20" s="107">
+        <v>5</v>
+      </c>
+      <c r="I20" s="107">
+        <v>4</v>
+      </c>
+      <c r="J20" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="135">
+        <v>7</v>
+      </c>
+      <c r="N20" s="136">
+        <v>3</v>
+      </c>
+      <c r="O20" s="137">
+        <v>8</v>
+      </c>
+      <c r="P20" s="136">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="136">
+        <v>1</v>
+      </c>
+      <c r="R20" s="136">
+        <v>3</v>
+      </c>
+      <c r="S20" s="136">
+        <v>3</v>
+      </c>
+      <c r="T20" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="95"/>
+      <c r="W20" s="95"/>
+    </row>
+    <row r="21" spans="3:23" ht="18.75">
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="120">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="141">
+        <v>5</v>
+      </c>
+      <c r="N21" s="142">
+        <v>3</v>
+      </c>
+      <c r="O21" s="143">
+        <v>10</v>
+      </c>
+      <c r="P21" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="142">
+        <v>1</v>
+      </c>
+      <c r="R21" s="142">
+        <v>3</v>
+      </c>
+      <c r="S21" s="142">
+        <v>3</v>
+      </c>
+      <c r="T21" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="95"/>
+      <c r="W21" s="95"/>
+    </row>
+    <row r="22" spans="3:23" ht="18.75">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="120">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="141">
+        <v>8</v>
+      </c>
+      <c r="N22" s="142">
+        <v>4</v>
+      </c>
+      <c r="O22" s="143">
+        <v>10</v>
+      </c>
+      <c r="P22" s="142">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="142">
+        <v>2</v>
+      </c>
+      <c r="R22" s="142">
+        <v>4</v>
+      </c>
+      <c r="S22" s="142">
+        <v>1</v>
+      </c>
+      <c r="T22" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="95"/>
+      <c r="W22" s="95"/>
+    </row>
+    <row r="23" spans="3:23" ht="18.75">
+      <c r="C23" s="103">
+        <v>17</v>
+      </c>
+      <c r="D23" s="103">
+        <v>7</v>
+      </c>
+      <c r="E23" s="114">
+        <v>11</v>
+      </c>
+      <c r="F23" s="103">
+        <v>4</v>
+      </c>
+      <c r="G23" s="103">
+        <v>1</v>
+      </c>
+      <c r="H23" s="103">
+        <v>5</v>
+      </c>
+      <c r="I23" s="103">
+        <v>4</v>
+      </c>
+      <c r="J23" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="132">
+        <v>6</v>
+      </c>
+      <c r="N23" s="133">
+        <v>3</v>
+      </c>
+      <c r="O23" s="134">
+        <v>11</v>
+      </c>
+      <c r="P23" s="133">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="133">
+        <v>1</v>
+      </c>
+      <c r="R23" s="133">
+        <v>3</v>
+      </c>
+      <c r="S23" s="133">
+        <v>3</v>
+      </c>
+      <c r="T23" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="95"/>
+      <c r="W23" s="95"/>
+    </row>
+    <row r="24" spans="3:23" ht="18.75">
+      <c r="C24" s="103">
+        <v>11</v>
+      </c>
+      <c r="D24" s="103">
+        <v>5</v>
+      </c>
+      <c r="E24" s="114">
+        <v>11</v>
+      </c>
+      <c r="F24" s="103">
+        <v>2</v>
+      </c>
+      <c r="G24" s="103">
+        <v>2</v>
+      </c>
+      <c r="H24" s="103">
+        <v>1</v>
+      </c>
+      <c r="I24" s="103">
+        <v>2</v>
+      </c>
+      <c r="J24" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="132">
+        <v>9</v>
+      </c>
+      <c r="N24" s="133">
+        <v>4</v>
+      </c>
+      <c r="O24" s="134">
+        <v>11</v>
+      </c>
+      <c r="P24" s="133">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="133">
+        <v>2</v>
+      </c>
+      <c r="R24" s="133">
+        <v>4</v>
+      </c>
+      <c r="S24" s="133">
+        <v>1</v>
+      </c>
+      <c r="T24" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="95"/>
+      <c r="W24" s="95"/>
+    </row>
+    <row r="25" spans="3:23" ht="18.75">
+      <c r="C25" s="2">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="120">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="129">
+        <v>18</v>
+      </c>
+      <c r="N25" s="130">
+        <v>7</v>
+      </c>
+      <c r="O25" s="131">
+        <v>12</v>
+      </c>
+      <c r="P25" s="130">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="130">
+        <v>1</v>
+      </c>
+      <c r="R25" s="130">
+        <v>5</v>
+      </c>
+      <c r="S25" s="130">
+        <v>4</v>
+      </c>
+      <c r="T25" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="U25" s="95"/>
+      <c r="W25" s="95"/>
+    </row>
+    <row r="26" spans="3:23" ht="18.75">
+      <c r="C26" s="96">
+        <v>19</v>
+      </c>
+      <c r="D26" s="96">
+        <v>8</v>
+      </c>
+      <c r="E26" s="115">
+        <v>13</v>
+      </c>
+      <c r="F26" s="96">
+        <v>4</v>
+      </c>
+      <c r="G26" s="96">
+        <v>2</v>
+      </c>
+      <c r="H26" s="96">
+        <v>5</v>
+      </c>
+      <c r="I26" s="96">
+        <v>4</v>
+      </c>
+      <c r="J26" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="129">
+        <v>12</v>
+      </c>
+      <c r="N26" s="130">
+        <v>6</v>
+      </c>
+      <c r="O26" s="131">
+        <v>12</v>
+      </c>
+      <c r="P26" s="130">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="130">
+        <v>2</v>
+      </c>
+      <c r="R26" s="130">
+        <v>3</v>
+      </c>
+      <c r="S26" s="130">
+        <v>3</v>
+      </c>
+      <c r="T26" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" s="95"/>
+      <c r="W26" s="95"/>
+    </row>
+    <row r="27" spans="3:23" ht="18.75">
+      <c r="C27" s="96">
+        <v>0</v>
+      </c>
+      <c r="D27" s="96">
+        <v>1</v>
+      </c>
+      <c r="E27" s="115">
+        <v>13</v>
+      </c>
+      <c r="F27" s="96">
+        <v>3</v>
+      </c>
+      <c r="G27" s="96">
+        <v>1</v>
+      </c>
+      <c r="H27" s="96">
+        <v>4</v>
+      </c>
+      <c r="I27" s="96">
+        <v>1</v>
+      </c>
+      <c r="J27" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="138">
+        <v>19</v>
+      </c>
+      <c r="N27" s="139">
+        <v>8</v>
+      </c>
+      <c r="O27" s="140">
+        <v>13</v>
+      </c>
+      <c r="P27" s="139">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="139">
+        <v>2</v>
+      </c>
+      <c r="R27" s="139">
+        <v>5</v>
+      </c>
+      <c r="S27" s="139">
+        <v>4</v>
+      </c>
+      <c r="T27" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="U27" s="95"/>
+      <c r="W27" s="95"/>
+    </row>
+    <row r="28" spans="3:23" ht="18.75">
+      <c r="C28" s="108">
+        <v>1</v>
+      </c>
+      <c r="D28" s="108">
+        <v>1</v>
+      </c>
+      <c r="E28" s="121">
+        <v>14</v>
+      </c>
+      <c r="F28" s="108">
+        <v>3</v>
+      </c>
+      <c r="G28" s="108">
+        <v>1</v>
+      </c>
+      <c r="H28" s="108">
+        <v>4</v>
+      </c>
+      <c r="I28" s="108">
+        <v>1</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="138">
+        <v>2</v>
+      </c>
+      <c r="N28" s="139">
+        <v>2</v>
+      </c>
+      <c r="O28" s="140">
+        <v>13</v>
+      </c>
+      <c r="P28" s="139">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="139">
+        <v>1</v>
+      </c>
+      <c r="R28" s="139">
+        <v>1</v>
+      </c>
+      <c r="S28" s="139">
+        <v>2</v>
+      </c>
+      <c r="T28" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="U28" s="95"/>
+      <c r="W28" s="95"/>
+    </row>
+    <row r="29" spans="3:23" ht="19.5" thickBot="1">
+      <c r="C29" s="108">
+        <v>14</v>
+      </c>
+      <c r="D29" s="108">
+        <v>6</v>
+      </c>
+      <c r="E29" s="122">
+        <v>14</v>
+      </c>
+      <c r="F29" s="108">
+        <v>2</v>
+      </c>
+      <c r="G29" s="108">
+        <v>2</v>
+      </c>
+      <c r="H29" s="108">
+        <v>3</v>
+      </c>
+      <c r="I29" s="108">
+        <v>3</v>
+      </c>
+      <c r="J29" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="112">
+        <v>3</v>
+      </c>
+      <c r="N29" s="95">
+        <v>2</v>
+      </c>
+      <c r="O29" s="125">
+        <v>14</v>
+      </c>
+      <c r="P29" s="95">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="95">
+        <v>1</v>
+      </c>
+      <c r="R29" s="95">
+        <v>1</v>
+      </c>
+      <c r="S29" s="95">
+        <v>2</v>
+      </c>
+      <c r="T29" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="U29" s="95"/>
+      <c r="W29" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -279,26 +280,6 @@
     <t>T_Slot</t>
   </si>
   <si>
-    <t>SC:1 MATH101ElectronicsJohnComLab 1 RQ: 1</t>
-  </si>
-  <si>
-    <t>SC:2 POLSCI101ElectronicsPaul
-Room 2 RQ: 1</t>
-  </si>
-  <si>
-    <t>SC:3 ENGL101ElectronicsJamesRoom 1 RQ: 3</t>
-  </si>
-  <si>
-    <t>SC:4 MATH101MechtronicsJohnComLab 1 RQ: 1</t>
-  </si>
-  <si>
-    <t>SC:5 POLSCI101MechtronicsPaul
-Room 1 RQ: 1</t>
-  </si>
-  <si>
-    <t>SC:6 ENGL101MechtronicsJamesRoom 1 RQ: 3</t>
-  </si>
-  <si>
     <t>req</t>
   </si>
   <si>
@@ -354,6 +335,26 @@
   </si>
   <si>
     <t xml:space="preserve">2235 | TOTAL CONFLICTS: 0 </t>
+  </si>
+  <si>
+    <t>SC:1[ MATH101] [Electronics][John][ComLab 1] RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:6[ ENGL101] [Mechtronics][James][Room 1] RQ: 3</t>
+  </si>
+  <si>
+    <t>SC:3[ ENGL101] [Electronics][James][Room 1] RQ: 3</t>
+  </si>
+  <si>
+    <t>SC:2[ POLSCI101] [Electronics][Paul
+][Room 2] RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:4[ MATH101] [Mechtronics][John][ComLab 1] RQ: 1</t>
+  </si>
+  <si>
+    <t>SC:5[ POLSCI101] [Mechtronics][Paul
+][Room 1] RQ: 1</t>
   </si>
 </sst>
 </file>
@@ -789,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1077,6 +1078,129 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,128 +1219,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,6 +1240,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376807</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26416ADD-37C9-4027-A250-3B5E8C02049A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="652462" y="119063"/>
+          <a:ext cx="4601145" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1891,34 +1952,34 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100" t="s">
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="97" t="s">
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="100" t="s">
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="102"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="142"/>
+      <c r="AH15" s="143"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1">
       <c r="J16" s="2" t="s">
@@ -3706,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N49">
         <v>5</v>
@@ -3714,7 +3775,7 @@
     </row>
     <row r="50" spans="8:14">
       <c r="L50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N50">
         <v>4</v>
@@ -3750,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G21" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I22"/>
+    <sheetView showGridLines="0" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3761,7 +3822,7 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
@@ -3874,8 +3935,8 @@
       </c>
       <c r="T4" s="5"/>
       <c r="V4" t="str">
-        <f>CONCATENATE("SC:",G4," ",I4,L4,N4,P4," RQ: ",S4)</f>
-        <v>SC:1 MATH101ElectronicsJohnComLab 1 RQ: 1</v>
+        <f>CONCATENATE("SC:",G4,"[ ",I4,"] [",L4,"][",N4,"][",P4,"] RQ: ",S4)</f>
+        <v>SC:1[ MATH101] [Electronics][John][ComLab 1] RQ: 1</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30" customHeight="1">
@@ -3938,9 +3999,9 @@
       </c>
       <c r="T5" s="2"/>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V9" si="5">CONCATENATE("SC:",G5," ",I5,L5,N5,P5," RQ: ",S5)</f>
-        <v>SC:2 POLSCI101ElectronicsPaul
-Room 2 RQ: 1</v>
+        <f t="shared" ref="V5:V9" si="5">CONCATENATE("SC:",G5,"[ ",I5,"] [",L5,"][",N5,"][",P5,"] RQ: ",S5)</f>
+        <v>SC:2[ POLSCI101] [Electronics][Paul
+][Room 2] RQ: 1</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1">
@@ -4003,7 +4064,7 @@
       <c r="T6" s="5"/>
       <c r="V6" t="str">
         <f t="shared" si="5"/>
-        <v>SC:3 ENGL101ElectronicsJamesRoom 1 RQ: 3</v>
+        <v>SC:3[ ENGL101] [Electronics][James][Room 1] RQ: 3</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30" customHeight="1">
@@ -4066,7 +4127,7 @@
       <c r="T7" s="2"/>
       <c r="V7" t="str">
         <f t="shared" si="5"/>
-        <v>SC:4 MATH101MechtronicsJohnComLab 1 RQ: 1</v>
+        <v>SC:4[ MATH101] [Mechtronics][John][ComLab 1] RQ: 1</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30" customHeight="1">
@@ -4130,8 +4191,8 @@
       <c r="T8" s="5"/>
       <c r="V8" t="str">
         <f t="shared" si="5"/>
-        <v>SC:5 POLSCI101MechtronicsPaul
-Room 1 RQ: 1</v>
+        <v>SC:5[ POLSCI101] [Mechtronics][Paul
+][Room 1] RQ: 1</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1">
@@ -4182,7 +4243,7 @@
       <c r="T9" s="2"/>
       <c r="V9" t="str">
         <f t="shared" si="5"/>
-        <v>SC:6 ENGL101MechtronicsJamesRoom 1 RQ: 3</v>
+        <v>SC:6[ ENGL101] [Mechtronics][James][Room 1] RQ: 3</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4265,8 +4326,8 @@
       <c r="G15" s="96">
         <v>1</v>
       </c>
-      <c r="H15" s="96" t="s">
-        <v>83</v>
+      <c r="H15" s="144" t="s">
+        <v>102</v>
       </c>
       <c r="I15" s="96">
         <v>0</v>
@@ -4274,38 +4335,38 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="G16" s="96">
-        <v>2</v>
-      </c>
-      <c r="H16" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="96">
-        <v>1</v>
+      <c r="G16" s="2">
+        <v>13</v>
+      </c>
+      <c r="H16" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
       <c r="G17" s="96">
-        <v>3</v>
-      </c>
-      <c r="H17" s="96" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="H17" s="144" t="s">
+        <v>102</v>
       </c>
       <c r="I17" s="96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="G18" s="96">
-        <v>4</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>104</v>
       </c>
       <c r="I18" s="96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -4326,13 +4387,13 @@
         <v>38</v>
       </c>
       <c r="G19" s="96">
-        <v>5</v>
-      </c>
-      <c r="H19" s="96" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>105</v>
       </c>
       <c r="I19" s="96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -4352,14 +4413,14 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="96">
-        <v>6</v>
-      </c>
-      <c r="H20" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="96">
-        <v>8</v>
+      <c r="G20" s="2">
+        <v>9</v>
+      </c>
+      <c r="H20" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -4380,49 +4441,49 @@
         <v>22</v>
       </c>
       <c r="G21" s="96">
-        <v>7</v>
-      </c>
-      <c r="H21" s="96" t="s">
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="H21" s="144" t="s">
+        <v>105</v>
       </c>
       <c r="I21" s="96">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="G22" s="96">
-        <v>8</v>
-      </c>
-      <c r="H22" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="96">
-        <v>12</v>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
       <c r="G23" s="2">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>86</v>
+        <v>11</v>
+      </c>
+      <c r="H23" s="145" t="s">
+        <v>106</v>
       </c>
       <c r="I23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
       <c r="G24" s="2">
-        <v>10</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="H24" s="145" t="s">
+        <v>107</v>
       </c>
       <c r="I24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -4443,13 +4504,13 @@
         <v>38</v>
       </c>
       <c r="G25" s="2">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="H25" s="145" t="s">
+        <v>103</v>
       </c>
       <c r="I25" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -4469,14 +4530,14 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="2">
-        <v>12</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="G26" s="96">
         <v>6</v>
+      </c>
+      <c r="H26" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="96">
+        <v>8</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -4496,14 +4557,14 @@
       <c r="E27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="2">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
+      <c r="G27" s="96">
+        <v>7</v>
+      </c>
+      <c r="H27" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="96">
+        <v>9</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -4524,13 +4585,13 @@
         <v>22</v>
       </c>
       <c r="G28" s="2">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="H28" s="145" t="s">
+        <v>103</v>
       </c>
       <c r="I28" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -4551,25 +4612,25 @@
         <v>22</v>
       </c>
       <c r="G29" s="2">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="H29" s="145" t="s">
+        <v>103</v>
       </c>
       <c r="I29" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="G30" s="2">
-        <v>16</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="2">
-        <v>11</v>
+      <c r="G30" s="96">
+        <v>8</v>
+      </c>
+      <c r="H30" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="96">
+        <v>12</v>
       </c>
       <c r="J30" s="95"/>
     </row>
@@ -4615,7 +4676,7 @@
     </row>
   </sheetData>
   <sortState ref="G15:I30">
-    <sortCondition ref="H14"/>
+    <sortCondition ref="I14"/>
   </sortState>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10">
@@ -4655,7 +4716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:W29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -4668,18 +4729,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:23" ht="17.25">
-      <c r="C1" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>107</v>
+      <c r="C1" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="104" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="3:23">
-      <c r="M2" s="109"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="3:23">
-      <c r="M3" s="111">
+      <c r="M3" s="105">
         <v>0</v>
       </c>
     </row>
@@ -4687,47 +4748,47 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="M4" s="109"/>
-    </row>
-    <row r="5" spans="3:23" ht="30">
+      <c r="M4" s="103"/>
+    </row>
+    <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>65</v>
@@ -4735,90 +4796,90 @@
     </row>
     <row r="6" spans="3:23">
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="3:23" ht="15.75" thickBot="1">
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:23" ht="18.75">
@@ -4828,7 +4889,7 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="107">
         <v>0</v>
       </c>
       <c r="F8" s="2">
@@ -4846,13 +4907,13 @@
       <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="112">
+      <c r="M8" s="106">
         <v>4</v>
       </c>
       <c r="N8" s="95">
         <v>3</v>
       </c>
-      <c r="O8" s="123">
+      <c r="O8" s="117">
         <v>0</v>
       </c>
       <c r="P8" s="95">
@@ -4874,105 +4935,105 @@
       <c r="W8" s="95"/>
     </row>
     <row r="9" spans="3:23" ht="18.75">
-      <c r="C9" s="103">
+      <c r="C9" s="97">
         <v>13</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="97">
         <v>6</v>
       </c>
-      <c r="E9" s="114">
-        <v>1</v>
-      </c>
-      <c r="F9" s="103">
-        <v>2</v>
-      </c>
-      <c r="G9" s="103">
-        <v>2</v>
-      </c>
-      <c r="H9" s="103">
-        <v>3</v>
-      </c>
-      <c r="I9" s="103">
-        <v>3</v>
-      </c>
-      <c r="J9" s="103" t="s">
+      <c r="E9" s="108">
+        <v>1</v>
+      </c>
+      <c r="F9" s="97">
+        <v>2</v>
+      </c>
+      <c r="G9" s="97">
+        <v>2</v>
+      </c>
+      <c r="H9" s="97">
+        <v>3</v>
+      </c>
+      <c r="I9" s="97">
+        <v>3</v>
+      </c>
+      <c r="J9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="132">
+      <c r="M9" s="126">
         <v>14</v>
       </c>
-      <c r="N9" s="133">
+      <c r="N9" s="127">
         <v>6</v>
       </c>
-      <c r="O9" s="134">
-        <v>1</v>
-      </c>
-      <c r="P9" s="133">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="133">
-        <v>2</v>
-      </c>
-      <c r="R9" s="133">
-        <v>3</v>
-      </c>
-      <c r="S9" s="133">
-        <v>3</v>
-      </c>
-      <c r="T9" s="133" t="s">
+      <c r="O9" s="128">
+        <v>1</v>
+      </c>
+      <c r="P9" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="127">
+        <v>2</v>
+      </c>
+      <c r="R9" s="127">
+        <v>3</v>
+      </c>
+      <c r="S9" s="127">
+        <v>3</v>
+      </c>
+      <c r="T9" s="127" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="95"/>
       <c r="W9" s="95"/>
     </row>
     <row r="10" spans="3:23" ht="18.75">
-      <c r="C10" s="103">
+      <c r="C10" s="97">
         <v>18</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="97">
         <v>7</v>
       </c>
-      <c r="E10" s="114">
-        <v>1</v>
-      </c>
-      <c r="F10" s="103">
-        <v>4</v>
-      </c>
-      <c r="G10" s="103">
-        <v>1</v>
-      </c>
-      <c r="H10" s="103">
+      <c r="E10" s="108">
+        <v>1</v>
+      </c>
+      <c r="F10" s="97">
+        <v>4</v>
+      </c>
+      <c r="G10" s="97">
+        <v>1</v>
+      </c>
+      <c r="H10" s="97">
         <v>5</v>
       </c>
-      <c r="I10" s="103">
-        <v>4</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="132">
+      <c r="I10" s="97">
+        <v>4</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="126">
         <v>16</v>
       </c>
-      <c r="N10" s="133">
+      <c r="N10" s="127">
         <v>7</v>
       </c>
-      <c r="O10" s="134">
-        <v>1</v>
-      </c>
-      <c r="P10" s="133">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="133">
-        <v>1</v>
-      </c>
-      <c r="R10" s="133">
+      <c r="O10" s="128">
+        <v>1</v>
+      </c>
+      <c r="P10" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="127">
+        <v>1</v>
+      </c>
+      <c r="R10" s="127">
         <v>5</v>
       </c>
-      <c r="S10" s="133">
-        <v>4</v>
-      </c>
-      <c r="T10" s="133" t="s">
-        <v>105</v>
+      <c r="S10" s="127">
+        <v>4</v>
+      </c>
+      <c r="T10" s="127" t="s">
+        <v>99</v>
       </c>
       <c r="U10" s="95"/>
       <c r="W10" s="95"/>
@@ -4984,7 +5045,7 @@
       <c r="D11" s="96">
         <v>3</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="109">
         <v>3</v>
       </c>
       <c r="F11" s="96">
@@ -5002,13 +5063,13 @@
       <c r="J11" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="112">
+      <c r="M11" s="106">
         <v>15</v>
       </c>
       <c r="N11" s="95">
         <v>6</v>
       </c>
-      <c r="O11" s="124">
+      <c r="O11" s="118">
         <v>2</v>
       </c>
       <c r="P11" s="95">
@@ -5036,7 +5097,7 @@
       <c r="D12" s="96">
         <v>8</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="109">
         <v>3</v>
       </c>
       <c r="F12" s="96">
@@ -5052,15 +5113,15 @@
         <v>4</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="112">
+        <v>99</v>
+      </c>
+      <c r="M12" s="106">
         <v>0</v>
       </c>
       <c r="N12" s="95">
         <v>1</v>
       </c>
-      <c r="O12" s="124">
+      <c r="O12" s="118">
         <v>3</v>
       </c>
       <c r="P12" s="95">
@@ -5082,141 +5143,141 @@
       <c r="W12" s="95"/>
     </row>
     <row r="13" spans="3:23" ht="18.75">
-      <c r="C13" s="104">
-        <v>2</v>
-      </c>
-      <c r="D13" s="104">
-        <v>2</v>
-      </c>
-      <c r="E13" s="116">
+      <c r="C13" s="98">
+        <v>2</v>
+      </c>
+      <c r="D13" s="98">
+        <v>2</v>
+      </c>
+      <c r="E13" s="110">
         <v>5</v>
       </c>
-      <c r="F13" s="104">
-        <v>2</v>
-      </c>
-      <c r="G13" s="104">
-        <v>1</v>
-      </c>
-      <c r="H13" s="104">
-        <v>1</v>
-      </c>
-      <c r="I13" s="104">
-        <v>2</v>
-      </c>
-      <c r="J13" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="129">
+      <c r="F13" s="98">
+        <v>2</v>
+      </c>
+      <c r="G13" s="98">
+        <v>1</v>
+      </c>
+      <c r="H13" s="98">
+        <v>1</v>
+      </c>
+      <c r="I13" s="98">
+        <v>2</v>
+      </c>
+      <c r="J13" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="123">
         <v>21</v>
       </c>
-      <c r="N13" s="130">
+      <c r="N13" s="124">
         <v>8</v>
       </c>
-      <c r="O13" s="131">
-        <v>4</v>
-      </c>
-      <c r="P13" s="130">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="130">
-        <v>2</v>
-      </c>
-      <c r="R13" s="130">
+      <c r="O13" s="125">
+        <v>4</v>
+      </c>
+      <c r="P13" s="124">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="124">
+        <v>2</v>
+      </c>
+      <c r="R13" s="124">
         <v>5</v>
       </c>
-      <c r="S13" s="130">
-        <v>4</v>
-      </c>
-      <c r="T13" s="130" t="s">
-        <v>105</v>
+      <c r="S13" s="124">
+        <v>4</v>
+      </c>
+      <c r="T13" s="124" t="s">
+        <v>99</v>
       </c>
       <c r="U13" s="95"/>
       <c r="W13" s="95"/>
     </row>
     <row r="14" spans="3:23" ht="18.75">
-      <c r="C14" s="104">
+      <c r="C14" s="98">
         <v>8</v>
       </c>
-      <c r="D14" s="104">
-        <v>4</v>
-      </c>
-      <c r="E14" s="116">
+      <c r="D14" s="98">
+        <v>4</v>
+      </c>
+      <c r="E14" s="110">
         <v>5</v>
       </c>
-      <c r="F14" s="104">
-        <v>3</v>
-      </c>
-      <c r="G14" s="104">
-        <v>2</v>
-      </c>
-      <c r="H14" s="104">
-        <v>4</v>
-      </c>
-      <c r="I14" s="104">
-        <v>1</v>
-      </c>
-      <c r="J14" s="104" t="s">
+      <c r="F14" s="98">
+        <v>3</v>
+      </c>
+      <c r="G14" s="98">
+        <v>2</v>
+      </c>
+      <c r="H14" s="98">
+        <v>4</v>
+      </c>
+      <c r="I14" s="98">
+        <v>1</v>
+      </c>
+      <c r="J14" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="129">
-        <v>1</v>
-      </c>
-      <c r="N14" s="130">
-        <v>1</v>
-      </c>
-      <c r="O14" s="131">
-        <v>4</v>
-      </c>
-      <c r="P14" s="130">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="130">
-        <v>1</v>
-      </c>
-      <c r="R14" s="130">
-        <v>4</v>
-      </c>
-      <c r="S14" s="130">
-        <v>1</v>
-      </c>
-      <c r="T14" s="130" t="s">
+      <c r="M14" s="123">
+        <v>1</v>
+      </c>
+      <c r="N14" s="124">
+        <v>1</v>
+      </c>
+      <c r="O14" s="125">
+        <v>4</v>
+      </c>
+      <c r="P14" s="124">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="124">
+        <v>1</v>
+      </c>
+      <c r="R14" s="124">
+        <v>4</v>
+      </c>
+      <c r="S14" s="124">
+        <v>1</v>
+      </c>
+      <c r="T14" s="124" t="s">
         <v>14</v>
       </c>
       <c r="U14" s="95"/>
       <c r="W14" s="95"/>
     </row>
     <row r="15" spans="3:23" ht="18.75">
-      <c r="C15" s="105">
+      <c r="C15" s="99">
         <v>9</v>
       </c>
-      <c r="D15" s="105">
-        <v>4</v>
-      </c>
-      <c r="E15" s="117">
+      <c r="D15" s="99">
+        <v>4</v>
+      </c>
+      <c r="E15" s="111">
         <v>6</v>
       </c>
-      <c r="F15" s="105">
-        <v>3</v>
-      </c>
-      <c r="G15" s="105">
-        <v>2</v>
-      </c>
-      <c r="H15" s="105">
-        <v>4</v>
-      </c>
-      <c r="I15" s="105">
-        <v>1</v>
-      </c>
-      <c r="J15" s="105" t="s">
+      <c r="F15" s="99">
+        <v>3</v>
+      </c>
+      <c r="G15" s="99">
+        <v>2</v>
+      </c>
+      <c r="H15" s="99">
+        <v>4</v>
+      </c>
+      <c r="I15" s="99">
+        <v>1</v>
+      </c>
+      <c r="J15" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="112">
+      <c r="M15" s="106">
         <v>13</v>
       </c>
       <c r="N15" s="95">
         <v>6</v>
       </c>
-      <c r="O15" s="124">
+      <c r="O15" s="118">
         <v>5</v>
       </c>
       <c r="P15" s="95">
@@ -5238,37 +5299,37 @@
       <c r="W15" s="95"/>
     </row>
     <row r="16" spans="3:23" ht="18.75">
-      <c r="C16" s="105">
-        <v>3</v>
-      </c>
-      <c r="D16" s="105">
-        <v>2</v>
-      </c>
-      <c r="E16" s="117">
+      <c r="C16" s="99">
+        <v>3</v>
+      </c>
+      <c r="D16" s="99">
+        <v>2</v>
+      </c>
+      <c r="E16" s="111">
         <v>6</v>
       </c>
-      <c r="F16" s="105">
-        <v>2</v>
-      </c>
-      <c r="G16" s="105">
-        <v>1</v>
-      </c>
-      <c r="H16" s="105">
-        <v>1</v>
-      </c>
-      <c r="I16" s="105">
-        <v>2</v>
-      </c>
-      <c r="J16" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="112">
+      <c r="F16" s="99">
+        <v>2</v>
+      </c>
+      <c r="G16" s="99">
+        <v>1</v>
+      </c>
+      <c r="H16" s="99">
+        <v>1</v>
+      </c>
+      <c r="I16" s="99">
+        <v>2</v>
+      </c>
+      <c r="J16" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="106">
         <v>10</v>
       </c>
       <c r="N16" s="95">
         <v>5</v>
       </c>
-      <c r="O16" s="124">
+      <c r="O16" s="118">
         <v>6</v>
       </c>
       <c r="P16" s="95">
@@ -5284,214 +5345,214 @@
         <v>2</v>
       </c>
       <c r="T16" s="95" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="U16" s="95"/>
       <c r="W16" s="95"/>
     </row>
     <row r="17" spans="3:23" ht="18.75">
-      <c r="C17" s="106">
+      <c r="C17" s="100">
         <v>15</v>
       </c>
-      <c r="D17" s="106">
+      <c r="D17" s="100">
         <v>6</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="112">
         <v>7</v>
       </c>
-      <c r="F17" s="106">
-        <v>2</v>
-      </c>
-      <c r="G17" s="106">
-        <v>2</v>
-      </c>
-      <c r="H17" s="106">
-        <v>3</v>
-      </c>
-      <c r="I17" s="106">
-        <v>3</v>
-      </c>
-      <c r="J17" s="106" t="s">
+      <c r="F17" s="100">
+        <v>2</v>
+      </c>
+      <c r="G17" s="100">
+        <v>2</v>
+      </c>
+      <c r="H17" s="100">
+        <v>3</v>
+      </c>
+      <c r="I17" s="100">
+        <v>3</v>
+      </c>
+      <c r="J17" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="126">
+      <c r="M17" s="120">
         <v>17</v>
       </c>
-      <c r="N17" s="127">
+      <c r="N17" s="121">
         <v>7</v>
       </c>
-      <c r="O17" s="128">
+      <c r="O17" s="122">
         <v>7</v>
       </c>
-      <c r="P17" s="127">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="127">
-        <v>1</v>
-      </c>
-      <c r="R17" s="127">
+      <c r="P17" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="121">
+        <v>1</v>
+      </c>
+      <c r="R17" s="121">
         <v>5</v>
       </c>
-      <c r="S17" s="127">
-        <v>4</v>
-      </c>
-      <c r="T17" s="127" t="s">
-        <v>105</v>
+      <c r="S17" s="121">
+        <v>4</v>
+      </c>
+      <c r="T17" s="121" t="s">
+        <v>99</v>
       </c>
       <c r="U17" s="95"/>
       <c r="W17" s="95"/>
     </row>
     <row r="18" spans="3:23" ht="18.75">
-      <c r="C18" s="106">
+      <c r="C18" s="100">
         <v>16</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="100">
         <v>7</v>
       </c>
-      <c r="E18" s="118">
+      <c r="E18" s="112">
         <v>7</v>
       </c>
-      <c r="F18" s="106">
-        <v>4</v>
-      </c>
-      <c r="G18" s="106">
-        <v>1</v>
-      </c>
-      <c r="H18" s="106">
+      <c r="F18" s="100">
+        <v>4</v>
+      </c>
+      <c r="G18" s="100">
+        <v>1</v>
+      </c>
+      <c r="H18" s="100">
         <v>5</v>
       </c>
-      <c r="I18" s="106">
-        <v>4</v>
-      </c>
-      <c r="J18" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" s="126">
+      <c r="I18" s="100">
+        <v>4</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="120">
         <v>11</v>
       </c>
-      <c r="N18" s="127">
+      <c r="N18" s="121">
         <v>5</v>
       </c>
-      <c r="O18" s="128">
+      <c r="O18" s="122">
         <v>7</v>
       </c>
-      <c r="P18" s="127">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="127">
-        <v>2</v>
-      </c>
-      <c r="R18" s="127">
-        <v>1</v>
-      </c>
-      <c r="S18" s="127">
-        <v>2</v>
-      </c>
-      <c r="T18" s="127" t="s">
-        <v>106</v>
+      <c r="P18" s="121">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="121">
+        <v>2</v>
+      </c>
+      <c r="R18" s="121">
+        <v>1</v>
+      </c>
+      <c r="S18" s="121">
+        <v>2</v>
+      </c>
+      <c r="T18" s="121" t="s">
+        <v>100</v>
       </c>
       <c r="U18" s="95"/>
       <c r="W18" s="95"/>
     </row>
     <row r="19" spans="3:23" ht="18.75">
-      <c r="C19" s="107">
-        <v>4</v>
-      </c>
-      <c r="D19" s="107">
-        <v>3</v>
-      </c>
-      <c r="E19" s="119">
+      <c r="C19" s="101">
+        <v>4</v>
+      </c>
+      <c r="D19" s="101">
+        <v>3</v>
+      </c>
+      <c r="E19" s="113">
         <v>8</v>
       </c>
-      <c r="F19" s="107">
-        <v>2</v>
-      </c>
-      <c r="G19" s="107">
-        <v>1</v>
-      </c>
-      <c r="H19" s="107">
-        <v>3</v>
-      </c>
-      <c r="I19" s="107">
-        <v>3</v>
-      </c>
-      <c r="J19" s="107" t="s">
+      <c r="F19" s="101">
+        <v>2</v>
+      </c>
+      <c r="G19" s="101">
+        <v>1</v>
+      </c>
+      <c r="H19" s="101">
+        <v>3</v>
+      </c>
+      <c r="I19" s="101">
+        <v>3</v>
+      </c>
+      <c r="J19" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="135">
+      <c r="M19" s="129">
         <v>20</v>
       </c>
-      <c r="N19" s="136">
+      <c r="N19" s="130">
         <v>8</v>
       </c>
-      <c r="O19" s="137">
+      <c r="O19" s="131">
         <v>8</v>
       </c>
-      <c r="P19" s="136">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="136">
-        <v>2</v>
-      </c>
-      <c r="R19" s="136">
+      <c r="P19" s="130">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="130">
+        <v>2</v>
+      </c>
+      <c r="R19" s="130">
         <v>5</v>
       </c>
-      <c r="S19" s="136">
-        <v>4</v>
-      </c>
-      <c r="T19" s="136" t="s">
-        <v>105</v>
+      <c r="S19" s="130">
+        <v>4</v>
+      </c>
+      <c r="T19" s="130" t="s">
+        <v>99</v>
       </c>
       <c r="U19" s="95"/>
       <c r="W19" s="95"/>
     </row>
     <row r="20" spans="3:23" ht="18.75">
-      <c r="C20" s="107">
+      <c r="C20" s="101">
         <v>20</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="101">
         <v>8</v>
       </c>
-      <c r="E20" s="119">
+      <c r="E20" s="113">
         <v>8</v>
       </c>
-      <c r="F20" s="107">
-        <v>4</v>
-      </c>
-      <c r="G20" s="107">
-        <v>2</v>
-      </c>
-      <c r="H20" s="107">
+      <c r="F20" s="101">
+        <v>4</v>
+      </c>
+      <c r="G20" s="101">
+        <v>2</v>
+      </c>
+      <c r="H20" s="101">
         <v>5</v>
       </c>
-      <c r="I20" s="107">
-        <v>4</v>
-      </c>
-      <c r="J20" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="135">
+      <c r="I20" s="101">
+        <v>4</v>
+      </c>
+      <c r="J20" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="129">
         <v>7</v>
       </c>
-      <c r="N20" s="136">
-        <v>3</v>
-      </c>
-      <c r="O20" s="137">
+      <c r="N20" s="130">
+        <v>3</v>
+      </c>
+      <c r="O20" s="131">
         <v>8</v>
       </c>
-      <c r="P20" s="136">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="136">
-        <v>1</v>
-      </c>
-      <c r="R20" s="136">
-        <v>3</v>
-      </c>
-      <c r="S20" s="136">
-        <v>3</v>
-      </c>
-      <c r="T20" s="136" t="s">
+      <c r="P20" s="130">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="130">
+        <v>1</v>
+      </c>
+      <c r="R20" s="130">
+        <v>3</v>
+      </c>
+      <c r="S20" s="130">
+        <v>3</v>
+      </c>
+      <c r="T20" s="130" t="s">
         <v>18</v>
       </c>
       <c r="U20" s="95"/>
@@ -5504,7 +5565,7 @@
       <c r="D21" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="114">
         <v>9</v>
       </c>
       <c r="F21" s="2">
@@ -5522,28 +5583,28 @@
       <c r="J21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="141">
+      <c r="M21" s="135">
         <v>5</v>
       </c>
-      <c r="N21" s="142">
-        <v>3</v>
-      </c>
-      <c r="O21" s="143">
+      <c r="N21" s="136">
+        <v>3</v>
+      </c>
+      <c r="O21" s="137">
         <v>10</v>
       </c>
-      <c r="P21" s="142">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="142">
-        <v>1</v>
-      </c>
-      <c r="R21" s="142">
-        <v>3</v>
-      </c>
-      <c r="S21" s="142">
-        <v>3</v>
-      </c>
-      <c r="T21" s="142" t="s">
+      <c r="P21" s="136">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="136">
+        <v>1</v>
+      </c>
+      <c r="R21" s="136">
+        <v>3</v>
+      </c>
+      <c r="S21" s="136">
+        <v>3</v>
+      </c>
+      <c r="T21" s="136" t="s">
         <v>18</v>
       </c>
       <c r="U21" s="95"/>
@@ -5556,7 +5617,7 @@
       <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="114">
         <v>10</v>
       </c>
       <c r="F22" s="2">
@@ -5572,134 +5633,134 @@
         <v>2</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="141">
+        <v>100</v>
+      </c>
+      <c r="M22" s="135">
         <v>8</v>
       </c>
-      <c r="N22" s="142">
-        <v>4</v>
-      </c>
-      <c r="O22" s="143">
+      <c r="N22" s="136">
+        <v>4</v>
+      </c>
+      <c r="O22" s="137">
         <v>10</v>
       </c>
-      <c r="P22" s="142">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="142">
-        <v>2</v>
-      </c>
-      <c r="R22" s="142">
-        <v>4</v>
-      </c>
-      <c r="S22" s="142">
-        <v>1</v>
-      </c>
-      <c r="T22" s="142" t="s">
+      <c r="P22" s="136">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="136">
+        <v>2</v>
+      </c>
+      <c r="R22" s="136">
+        <v>4</v>
+      </c>
+      <c r="S22" s="136">
+        <v>1</v>
+      </c>
+      <c r="T22" s="136" t="s">
         <v>14</v>
       </c>
       <c r="U22" s="95"/>
       <c r="W22" s="95"/>
     </row>
     <row r="23" spans="3:23" ht="18.75">
-      <c r="C23" s="103">
+      <c r="C23" s="97">
         <v>17</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="97">
         <v>7</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="108">
         <v>11</v>
       </c>
-      <c r="F23" s="103">
-        <v>4</v>
-      </c>
-      <c r="G23" s="103">
-        <v>1</v>
-      </c>
-      <c r="H23" s="103">
+      <c r="F23" s="97">
+        <v>4</v>
+      </c>
+      <c r="G23" s="97">
+        <v>1</v>
+      </c>
+      <c r="H23" s="97">
         <v>5</v>
       </c>
-      <c r="I23" s="103">
-        <v>4</v>
-      </c>
-      <c r="J23" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="132">
+      <c r="I23" s="97">
+        <v>4</v>
+      </c>
+      <c r="J23" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="126">
         <v>6</v>
       </c>
-      <c r="N23" s="133">
-        <v>3</v>
-      </c>
-      <c r="O23" s="134">
+      <c r="N23" s="127">
+        <v>3</v>
+      </c>
+      <c r="O23" s="128">
         <v>11</v>
       </c>
-      <c r="P23" s="133">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="133">
-        <v>1</v>
-      </c>
-      <c r="R23" s="133">
-        <v>3</v>
-      </c>
-      <c r="S23" s="133">
-        <v>3</v>
-      </c>
-      <c r="T23" s="133" t="s">
+      <c r="P23" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="127">
+        <v>1</v>
+      </c>
+      <c r="R23" s="127">
+        <v>3</v>
+      </c>
+      <c r="S23" s="127">
+        <v>3</v>
+      </c>
+      <c r="T23" s="127" t="s">
         <v>18</v>
       </c>
       <c r="U23" s="95"/>
       <c r="W23" s="95"/>
     </row>
     <row r="24" spans="3:23" ht="18.75">
-      <c r="C24" s="103">
+      <c r="C24" s="97">
         <v>11</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="97">
         <v>5</v>
       </c>
-      <c r="E24" s="114">
+      <c r="E24" s="108">
         <v>11</v>
       </c>
-      <c r="F24" s="103">
-        <v>2</v>
-      </c>
-      <c r="G24" s="103">
-        <v>2</v>
-      </c>
-      <c r="H24" s="103">
-        <v>1</v>
-      </c>
-      <c r="I24" s="103">
-        <v>2</v>
-      </c>
-      <c r="J24" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="132">
+      <c r="F24" s="97">
+        <v>2</v>
+      </c>
+      <c r="G24" s="97">
+        <v>2</v>
+      </c>
+      <c r="H24" s="97">
+        <v>1</v>
+      </c>
+      <c r="I24" s="97">
+        <v>2</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="126">
         <v>9</v>
       </c>
-      <c r="N24" s="133">
-        <v>4</v>
-      </c>
-      <c r="O24" s="134">
+      <c r="N24" s="127">
+        <v>4</v>
+      </c>
+      <c r="O24" s="128">
         <v>11</v>
       </c>
-      <c r="P24" s="133">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="133">
-        <v>2</v>
-      </c>
-      <c r="R24" s="133">
-        <v>4</v>
-      </c>
-      <c r="S24" s="133">
-        <v>1</v>
-      </c>
-      <c r="T24" s="133" t="s">
+      <c r="P24" s="127">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="127">
+        <v>2</v>
+      </c>
+      <c r="R24" s="127">
+        <v>4</v>
+      </c>
+      <c r="S24" s="127">
+        <v>1</v>
+      </c>
+      <c r="T24" s="127" t="s">
         <v>14</v>
       </c>
       <c r="U24" s="95"/>
@@ -5712,7 +5773,7 @@
       <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="120">
+      <c r="E25" s="114">
         <v>12</v>
       </c>
       <c r="F25" s="2">
@@ -5730,29 +5791,29 @@
       <c r="J25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="129">
+      <c r="M25" s="123">
         <v>18</v>
       </c>
-      <c r="N25" s="130">
+      <c r="N25" s="124">
         <v>7</v>
       </c>
-      <c r="O25" s="131">
+      <c r="O25" s="125">
         <v>12</v>
       </c>
-      <c r="P25" s="130">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="130">
-        <v>1</v>
-      </c>
-      <c r="R25" s="130">
+      <c r="P25" s="124">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="124">
+        <v>1</v>
+      </c>
+      <c r="R25" s="124">
         <v>5</v>
       </c>
-      <c r="S25" s="130">
-        <v>4</v>
-      </c>
-      <c r="T25" s="130" t="s">
-        <v>105</v>
+      <c r="S25" s="124">
+        <v>4</v>
+      </c>
+      <c r="T25" s="124" t="s">
+        <v>99</v>
       </c>
       <c r="U25" s="95"/>
       <c r="W25" s="95"/>
@@ -5764,7 +5825,7 @@
       <c r="D26" s="96">
         <v>8</v>
       </c>
-      <c r="E26" s="115">
+      <c r="E26" s="109">
         <v>13</v>
       </c>
       <c r="F26" s="96">
@@ -5780,30 +5841,30 @@
         <v>4</v>
       </c>
       <c r="J26" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="M26" s="129">
+        <v>99</v>
+      </c>
+      <c r="M26" s="123">
         <v>12</v>
       </c>
-      <c r="N26" s="130">
+      <c r="N26" s="124">
         <v>6</v>
       </c>
-      <c r="O26" s="131">
+      <c r="O26" s="125">
         <v>12</v>
       </c>
-      <c r="P26" s="130">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="130">
-        <v>2</v>
-      </c>
-      <c r="R26" s="130">
-        <v>3</v>
-      </c>
-      <c r="S26" s="130">
-        <v>3</v>
-      </c>
-      <c r="T26" s="130" t="s">
+      <c r="P26" s="124">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="124">
+        <v>2</v>
+      </c>
+      <c r="R26" s="124">
+        <v>3</v>
+      </c>
+      <c r="S26" s="124">
+        <v>3</v>
+      </c>
+      <c r="T26" s="124" t="s">
         <v>18</v>
       </c>
       <c r="U26" s="95"/>
@@ -5816,7 +5877,7 @@
       <c r="D27" s="96">
         <v>1</v>
       </c>
-      <c r="E27" s="115">
+      <c r="E27" s="109">
         <v>13</v>
       </c>
       <c r="F27" s="96">
@@ -5834,117 +5895,117 @@
       <c r="J27" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="138">
+      <c r="M27" s="132">
         <v>19</v>
       </c>
-      <c r="N27" s="139">
+      <c r="N27" s="133">
         <v>8</v>
       </c>
-      <c r="O27" s="140">
+      <c r="O27" s="134">
         <v>13</v>
       </c>
-      <c r="P27" s="139">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="139">
-        <v>2</v>
-      </c>
-      <c r="R27" s="139">
+      <c r="P27" s="133">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="133">
+        <v>2</v>
+      </c>
+      <c r="R27" s="133">
         <v>5</v>
       </c>
-      <c r="S27" s="139">
-        <v>4</v>
-      </c>
-      <c r="T27" s="139" t="s">
-        <v>105</v>
+      <c r="S27" s="133">
+        <v>4</v>
+      </c>
+      <c r="T27" s="133" t="s">
+        <v>99</v>
       </c>
       <c r="U27" s="95"/>
       <c r="W27" s="95"/>
     </row>
     <row r="28" spans="3:23" ht="18.75">
-      <c r="C28" s="108">
-        <v>1</v>
-      </c>
-      <c r="D28" s="108">
-        <v>1</v>
-      </c>
-      <c r="E28" s="121">
+      <c r="C28" s="102">
+        <v>1</v>
+      </c>
+      <c r="D28" s="102">
+        <v>1</v>
+      </c>
+      <c r="E28" s="115">
         <v>14</v>
       </c>
-      <c r="F28" s="108">
-        <v>3</v>
-      </c>
-      <c r="G28" s="108">
-        <v>1</v>
-      </c>
-      <c r="H28" s="108">
-        <v>4</v>
-      </c>
-      <c r="I28" s="108">
-        <v>1</v>
-      </c>
-      <c r="J28" s="108" t="s">
+      <c r="F28" s="102">
+        <v>3</v>
+      </c>
+      <c r="G28" s="102">
+        <v>1</v>
+      </c>
+      <c r="H28" s="102">
+        <v>4</v>
+      </c>
+      <c r="I28" s="102">
+        <v>1</v>
+      </c>
+      <c r="J28" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="138">
-        <v>2</v>
-      </c>
-      <c r="N28" s="139">
-        <v>2</v>
-      </c>
-      <c r="O28" s="140">
+      <c r="M28" s="132">
+        <v>2</v>
+      </c>
+      <c r="N28" s="133">
+        <v>2</v>
+      </c>
+      <c r="O28" s="134">
         <v>13</v>
       </c>
-      <c r="P28" s="139">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="139">
-        <v>1</v>
-      </c>
-      <c r="R28" s="139">
-        <v>1</v>
-      </c>
-      <c r="S28" s="139">
-        <v>2</v>
-      </c>
-      <c r="T28" s="139" t="s">
-        <v>106</v>
+      <c r="P28" s="133">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="133">
+        <v>1</v>
+      </c>
+      <c r="R28" s="133">
+        <v>1</v>
+      </c>
+      <c r="S28" s="133">
+        <v>2</v>
+      </c>
+      <c r="T28" s="133" t="s">
+        <v>100</v>
       </c>
       <c r="U28" s="95"/>
       <c r="W28" s="95"/>
     </row>
     <row r="29" spans="3:23" ht="19.5" thickBot="1">
-      <c r="C29" s="108">
+      <c r="C29" s="102">
         <v>14</v>
       </c>
-      <c r="D29" s="108">
+      <c r="D29" s="102">
         <v>6</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="116">
         <v>14</v>
       </c>
-      <c r="F29" s="108">
-        <v>2</v>
-      </c>
-      <c r="G29" s="108">
-        <v>2</v>
-      </c>
-      <c r="H29" s="108">
-        <v>3</v>
-      </c>
-      <c r="I29" s="108">
-        <v>3</v>
-      </c>
-      <c r="J29" s="108" t="s">
+      <c r="F29" s="102">
+        <v>2</v>
+      </c>
+      <c r="G29" s="102">
+        <v>2</v>
+      </c>
+      <c r="H29" s="102">
+        <v>3</v>
+      </c>
+      <c r="I29" s="102">
+        <v>3</v>
+      </c>
+      <c r="J29" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="112">
+      <c r="M29" s="106">
         <v>3</v>
       </c>
       <c r="N29" s="95">
         <v>2</v>
       </c>
-      <c r="O29" s="125">
+      <c r="O29" s="119">
         <v>14</v>
       </c>
       <c r="P29" s="95">
@@ -5960,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="T29" s="95" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="U29" s="95"/>
       <c r="W29" s="95"/>
@@ -5968,4 +6029,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="176">
   <si>
     <t>John</t>
   </si>
@@ -355,13 +356,217 @@
   <si>
     <t>SC:5[ POLSCI101] [Mechtronics][Paul
 ][Room 1] RQ: 1</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [1] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [2] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [3] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [3] =&gt; 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [4] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [5] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [6] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [3] =&gt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [7] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [8] =&gt; Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 8</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [1] =&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [3] =&gt; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [0] =&gt; 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            [2] =&gt; 14</t>
+  </si>
+  <si>
+    <t>Array A</t>
+  </si>
+  <si>
+    <t>Array C</t>
+  </si>
+  <si>
+    <t>Array B</t>
+  </si>
+  <si>
+    <t>key: 0 of child value scID: 6</t>
+  </si>
+  <si>
+    <t>key: 1 of child value scID: 3</t>
+  </si>
+  <si>
+    <t>key: 2 of child value scID: 7</t>
+  </si>
+  <si>
+    <t>key: 3 of child value scID: 6</t>
+  </si>
+  <si>
+    <t>key: 4 of child value scID: 8</t>
+  </si>
+  <si>
+    <t>key: 5 of child value scID: 4</t>
+  </si>
+  <si>
+    <t>key: 6 of child value scID: 3</t>
+  </si>
+  <si>
+    <t>key: 7 of child value scID: 7</t>
+  </si>
+  <si>
+    <t>key: 8 of child value scID: 4</t>
+  </si>
+  <si>
+    <t>key: 9 of child value scID: 6</t>
+  </si>
+  <si>
+    <t>key: 10 of child value scID: 3</t>
+  </si>
+  <si>
+    <t>key: 11 of child value scID: 8</t>
+  </si>
+  <si>
+    <t>key: 12 of child value scID: 1</t>
+  </si>
+  <si>
+    <t>key: 13 of child value scID: 5</t>
+  </si>
+  <si>
+    <t>key: 14 of child value scID: 1</t>
+  </si>
+  <si>
+    <t>key: 15 of child value scID: 5</t>
+  </si>
+  <si>
+    <t>key: 16 of child value scID: 3</t>
+  </si>
+  <si>
+    <t>key: 17 of child value scID: 7</t>
+  </si>
+  <si>
+    <t>key: 18 of child value scID: 2</t>
+  </si>
+  <si>
+    <t>key: 19 of child value scID: 6</t>
+  </si>
+  <si>
+    <t>key: 20 of child value scID: 2</t>
+  </si>
+  <si>
+    <t>key: 21 of child value scID: 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +642,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -790,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1201,6 +1412,12 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1219,11 +1436,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,7 +1476,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26416ADD-37C9-4027-A250-3B5E8C02049A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26416ADD-37C9-4027-A250-3B5E8C02049A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1813,7 @@
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1615,7 +1829,7 @@
     <col min="15" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" ht="60">
+    <row r="3" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1645,7 +1859,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1901,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:34" ht="30">
+    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1729,7 +1943,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1771,7 +1985,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:34" ht="30">
+    <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1813,7 +2027,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:34" ht="30">
+    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1855,7 +2069,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:34" ht="30">
+    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -1885,7 +2099,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +2116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1919,7 +2133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15.75" thickBot="1">
+    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1936,7 +2150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1952,36 +2166,36 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="138" t="s">
+      <c r="O15" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="141" t="s">
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="138" t="s">
+      <c r="U15" s="144"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="144"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="141" t="s">
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="141"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="142"/>
-      <c r="AH15" s="143"/>
-    </row>
-    <row r="16" spans="1:34" ht="15.75" thickBot="1">
+      <c r="AE15" s="144"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="145"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
         <v>54</v>
       </c>
@@ -2054,7 +2268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="30">
+    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="J17" s="3">
         <f>QUOTIENT(L17,5)+1</f>
         <v>1</v>
@@ -2145,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30">
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="J18" s="3">
         <f t="shared" ref="J18:J31" si="4">QUOTIENT(L18,5)+1</f>
         <v>1</v>
@@ -2232,7 +2446,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2548,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="30">
+    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2439,7 +2653,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="30.75" thickBot="1">
+    <row r="21" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2544,7 +2758,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="30">
+    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0</v>
       </c>
@@ -2637,7 +2851,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="30">
+    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>7</v>
       </c>
@@ -2728,7 +2942,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="30">
+    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>10</v>
       </c>
@@ -2818,7 +3032,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2923,7 +3137,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" thickBot="1">
+    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3025,7 +3239,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="30">
+    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3129,7 +3343,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="30">
+    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3231,7 +3445,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3333,7 +3547,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J30" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3418,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="15.75" thickBot="1">
+    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J31" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3503,7 +3717,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -3525,7 +3739,7 @@
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
     </row>
-    <row r="33" spans="3:34">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -3550,7 +3764,7 @@
       <c r="AG33" s="23"/>
       <c r="AH33" s="23"/>
     </row>
-    <row r="34" spans="3:34">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -3583,7 +3797,7 @@
       <c r="AG34" s="23"/>
       <c r="AH34" s="23"/>
     </row>
-    <row r="35" spans="3:34">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -3597,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:34">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -3611,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:34">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -3625,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:34">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -3653,7 +3867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:34">
+    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -3681,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:34">
+    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -3697,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:34">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>11</v>
       </c>
@@ -3706,13 +3920,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="3:34">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
       <c r="G42">
         <f>SUM(G38:G41)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="3:34">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
       <c r="H44">
         <v>9</v>
       </c>
@@ -3721,7 +3935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:34">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
       <c r="H45">
         <f>H44-2</f>
         <v>7</v>
@@ -3731,7 +3945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="3:34">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
       <c r="H46">
         <f t="shared" ref="H46:H48" si="24">H45-2</f>
         <v>5</v>
@@ -3741,7 +3955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="3:34">
+    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
       <c r="H47">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -3751,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:34">
+    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
       <c r="H48">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -3761,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="8:14">
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H49">
         <f>SUM(H44:H48)</f>
         <v>25</v>
@@ -3773,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="8:14">
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L50" t="s">
         <v>84</v>
       </c>
@@ -3815,7 +4029,7 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3833,8 +4047,8 @@
     <col min="19" max="38" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:22" ht="60">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
@@ -3876,7 +4090,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="30" customHeight="1">
+    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +4153,7 @@
         <v>SC:1[ MATH101] [Electronics][John][ComLab 1] RQ: 1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1">
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4004,7 +4218,7 @@
 ][Room 2] RQ: 1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" customHeight="1">
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4067,7 +4281,7 @@
         <v>SC:3[ ENGL101] [Electronics][James][Room 1] RQ: 3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1">
+    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4130,7 +4344,7 @@
         <v>SC:4[ MATH101] [Mechtronics][John][ComLab 1] RQ: 1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1">
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4195,7 +4409,7 @@
 ][Room 1] RQ: 1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -4246,7 +4460,7 @@
         <v>SC:6[ ENGL101] [Mechtronics][James][Room 1] RQ: 3</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4280,7 +4494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4307,7 +4521,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4326,7 +4540,7 @@
       <c r="G15" s="96">
         <v>1</v>
       </c>
-      <c r="H15" s="144" t="s">
+      <c r="H15" s="138" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="96">
@@ -4334,11 +4548,11 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G16" s="2">
         <v>13</v>
       </c>
-      <c r="H16" s="145" t="s">
+      <c r="H16" s="139" t="s">
         <v>103</v>
       </c>
       <c r="I16" s="2">
@@ -4346,11 +4560,11 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G17" s="96">
         <v>2</v>
       </c>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="138" t="s">
         <v>102</v>
       </c>
       <c r="I17" s="96">
@@ -4358,11 +4572,11 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G18" s="96">
         <v>5</v>
       </c>
-      <c r="H18" s="144" t="s">
+      <c r="H18" s="138" t="s">
         <v>104</v>
       </c>
       <c r="I18" s="96">
@@ -4370,7 +4584,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4389,7 +4603,7 @@
       <c r="G19" s="96">
         <v>3</v>
       </c>
-      <c r="H19" s="144" t="s">
+      <c r="H19" s="138" t="s">
         <v>105</v>
       </c>
       <c r="I19" s="96">
@@ -4397,7 +4611,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4416,7 +4630,7 @@
       <c r="G20" s="2">
         <v>9</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="139" t="s">
         <v>106</v>
       </c>
       <c r="I20" s="2">
@@ -4424,7 +4638,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4443,7 +4657,7 @@
       <c r="G21" s="96">
         <v>4</v>
       </c>
-      <c r="H21" s="144" t="s">
+      <c r="H21" s="138" t="s">
         <v>105</v>
       </c>
       <c r="I21" s="96">
@@ -4451,11 +4665,11 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22" s="2">
         <v>10</v>
       </c>
-      <c r="H22" s="145" t="s">
+      <c r="H22" s="139" t="s">
         <v>106</v>
       </c>
       <c r="I22" s="2">
@@ -4463,11 +4677,11 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23" s="2">
         <v>11</v>
       </c>
-      <c r="H23" s="145" t="s">
+      <c r="H23" s="139" t="s">
         <v>106</v>
       </c>
       <c r="I23" s="2">
@@ -4475,11 +4689,11 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24" s="2">
         <v>12</v>
       </c>
-      <c r="H24" s="145" t="s">
+      <c r="H24" s="139" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="2">
@@ -4487,7 +4701,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4506,7 +4720,7 @@
       <c r="G25" s="2">
         <v>14</v>
       </c>
-      <c r="H25" s="145" t="s">
+      <c r="H25" s="139" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="2">
@@ -4514,7 +4728,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4533,7 +4747,7 @@
       <c r="G26" s="96">
         <v>6</v>
       </c>
-      <c r="H26" s="144" t="s">
+      <c r="H26" s="138" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="96">
@@ -4541,7 +4755,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4560,7 +4774,7 @@
       <c r="G27" s="96">
         <v>7</v>
       </c>
-      <c r="H27" s="144" t="s">
+      <c r="H27" s="138" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="96">
@@ -4568,7 +4782,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4587,7 +4801,7 @@
       <c r="G28" s="2">
         <v>15</v>
       </c>
-      <c r="H28" s="145" t="s">
+      <c r="H28" s="139" t="s">
         <v>103</v>
       </c>
       <c r="I28" s="2">
@@ -4595,7 +4809,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4614,7 +4828,7 @@
       <c r="G29" s="2">
         <v>16</v>
       </c>
-      <c r="H29" s="145" t="s">
+      <c r="H29" s="139" t="s">
         <v>103</v>
       </c>
       <c r="I29" s="2">
@@ -4622,11 +4836,11 @@
       </c>
       <c r="J29" s="95"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G30" s="96">
         <v>8</v>
       </c>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="138" t="s">
         <v>104</v>
       </c>
       <c r="I30" s="96">
@@ -4634,42 +4848,42 @@
       </c>
       <c r="J30" s="95"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -4720,7 +4934,7 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
@@ -4728,7 +4942,7 @@
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" ht="17.25">
+    <row r="1" spans="3:23" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C1" s="104" t="s">
         <v>85</v>
       </c>
@@ -4736,21 +4950,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="3:23">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="3:23">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="M3" s="105">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:23">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>0</v>
       </c>
       <c r="M4" s="103"/>
     </row>
-    <row r="5" spans="3:23">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
@@ -4794,7 +5008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="3:23">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
@@ -4838,7 +5052,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="3:23" ht="15.75" thickBot="1">
+    <row r="7" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
@@ -4882,7 +5096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="3:23" ht="18.75">
+    <row r="8" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>12</v>
       </c>
@@ -4934,7 +5148,7 @@
       <c r="U8" s="95"/>
       <c r="W8" s="95"/>
     </row>
-    <row r="9" spans="3:23" ht="18.75">
+    <row r="9" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="97">
         <v>13</v>
       </c>
@@ -4986,7 +5200,7 @@
       <c r="U9" s="95"/>
       <c r="W9" s="95"/>
     </row>
-    <row r="10" spans="3:23" ht="18.75">
+    <row r="10" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="97">
         <v>18</v>
       </c>
@@ -5038,7 +5252,7 @@
       <c r="U10" s="95"/>
       <c r="W10" s="95"/>
     </row>
-    <row r="11" spans="3:23" ht="18.75">
+    <row r="11" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="96">
         <v>6</v>
       </c>
@@ -5090,7 +5304,7 @@
       <c r="U11" s="95"/>
       <c r="W11" s="95"/>
     </row>
-    <row r="12" spans="3:23" ht="18.75">
+    <row r="12" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="96">
         <v>21</v>
       </c>
@@ -5142,7 +5356,7 @@
       <c r="U12" s="95"/>
       <c r="W12" s="95"/>
     </row>
-    <row r="13" spans="3:23" ht="18.75">
+    <row r="13" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="98">
         <v>2</v>
       </c>
@@ -5194,7 +5408,7 @@
       <c r="U13" s="95"/>
       <c r="W13" s="95"/>
     </row>
-    <row r="14" spans="3:23" ht="18.75">
+    <row r="14" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="98">
         <v>8</v>
       </c>
@@ -5246,7 +5460,7 @@
       <c r="U14" s="95"/>
       <c r="W14" s="95"/>
     </row>
-    <row r="15" spans="3:23" ht="18.75">
+    <row r="15" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="99">
         <v>9</v>
       </c>
@@ -5298,7 +5512,7 @@
       <c r="U15" s="95"/>
       <c r="W15" s="95"/>
     </row>
-    <row r="16" spans="3:23" ht="18.75">
+    <row r="16" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C16" s="99">
         <v>3</v>
       </c>
@@ -5350,7 +5564,7 @@
       <c r="U16" s="95"/>
       <c r="W16" s="95"/>
     </row>
-    <row r="17" spans="3:23" ht="18.75">
+    <row r="17" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="100">
         <v>15</v>
       </c>
@@ -5402,7 +5616,7 @@
       <c r="U17" s="95"/>
       <c r="W17" s="95"/>
     </row>
-    <row r="18" spans="3:23" ht="18.75">
+    <row r="18" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18" s="100">
         <v>16</v>
       </c>
@@ -5454,7 +5668,7 @@
       <c r="U18" s="95"/>
       <c r="W18" s="95"/>
     </row>
-    <row r="19" spans="3:23" ht="18.75">
+    <row r="19" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="101">
         <v>4</v>
       </c>
@@ -5506,7 +5720,7 @@
       <c r="U19" s="95"/>
       <c r="W19" s="95"/>
     </row>
-    <row r="20" spans="3:23" ht="18.75">
+    <row r="20" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C20" s="101">
         <v>20</v>
       </c>
@@ -5558,7 +5772,7 @@
       <c r="U20" s="95"/>
       <c r="W20" s="95"/>
     </row>
-    <row r="21" spans="3:23" ht="18.75">
+    <row r="21" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>5</v>
       </c>
@@ -5610,7 +5824,7 @@
       <c r="U21" s="95"/>
       <c r="W21" s="95"/>
     </row>
-    <row r="22" spans="3:23" ht="18.75">
+    <row r="22" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>10</v>
       </c>
@@ -5662,7 +5876,7 @@
       <c r="U22" s="95"/>
       <c r="W22" s="95"/>
     </row>
-    <row r="23" spans="3:23" ht="18.75">
+    <row r="23" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="97">
         <v>17</v>
       </c>
@@ -5714,7 +5928,7 @@
       <c r="U23" s="95"/>
       <c r="W23" s="95"/>
     </row>
-    <row r="24" spans="3:23" ht="18.75">
+    <row r="24" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="97">
         <v>11</v>
       </c>
@@ -5766,7 +5980,7 @@
       <c r="U24" s="95"/>
       <c r="W24" s="95"/>
     </row>
-    <row r="25" spans="3:23" ht="18.75">
+    <row r="25" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>7</v>
       </c>
@@ -5818,7 +6032,7 @@
       <c r="U25" s="95"/>
       <c r="W25" s="95"/>
     </row>
-    <row r="26" spans="3:23" ht="18.75">
+    <row r="26" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="96">
         <v>19</v>
       </c>
@@ -5870,7 +6084,7 @@
       <c r="U26" s="95"/>
       <c r="W26" s="95"/>
     </row>
-    <row r="27" spans="3:23" ht="18.75">
+    <row r="27" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="96">
         <v>0</v>
       </c>
@@ -5922,7 +6136,7 @@
       <c r="U27" s="95"/>
       <c r="W27" s="95"/>
     </row>
-    <row r="28" spans="3:23" ht="18.75">
+    <row r="28" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="102">
         <v>1</v>
       </c>
@@ -5974,7 +6188,7 @@
       <c r="U28" s="95"/>
       <c r="W28" s="95"/>
     </row>
-    <row r="29" spans="3:23" ht="19.5" thickBot="1">
+    <row r="29" spans="3:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="102">
         <v>14</v>
       </c>
@@ -6035,13 +6249,652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="146" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="146" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="146" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/csv/visual.xlsx
+++ b/csv/visual.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vet-css\csv\"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="199">
   <si>
     <t>John</t>
   </si>
@@ -560,13 +560,85 @@
   </si>
   <si>
     <t>key: 21 of child value scID: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 2 </t>
+  </si>
+  <si>
+    <t>CANTEEN</t>
+  </si>
+  <si>
+    <t>1MATH101</t>
+  </si>
+  <si>
+    <t>3ENGL101</t>
+  </si>
+  <si>
+    <t>x= 0 key: 77 matingPoolFrequency: 33</t>
+  </si>
+  <si>
+    <t>x= 1 key: 7 matingPoolFrequency: 20</t>
+  </si>
+  <si>
+    <t>x= 2 key: 52 matingPoolFrequency: 17</t>
+  </si>
+  <si>
+    <t>x= 3 key: 31 matingPoolFrequency: 14</t>
+  </si>
+  <si>
+    <t>x= 4 key: 5 matingPoolFrequency: 13</t>
+  </si>
+  <si>
+    <t>x= 5 key: 6 matingPoolFrequency: 11</t>
+  </si>
+  <si>
+    <t>x= 6 key: 2 matingPoolFrequency: 10</t>
+  </si>
+  <si>
+    <t>x= 7 key: 1 matingPoolFrequency: 9</t>
+  </si>
+  <si>
+    <t>x= 8 key: 8 matingPoolFrequency: 8</t>
+  </si>
+  <si>
+    <t>x= 9 key: 0 matingPoolFrequency: 8</t>
+  </si>
+  <si>
+    <t>x= 10 key: 14 matingPoolFrequency: 7</t>
+  </si>
+  <si>
+    <t>x= 11 key: 26 matingPoolFrequency: 7</t>
+  </si>
+  <si>
+    <t>x= 12 key: 9 matingPoolFrequency: 6</t>
+  </si>
+  <si>
+    <t>x= 13 key: 25 matingPoolFrequency: 6</t>
+  </si>
+  <si>
+    <t>x= 14 key: 11 matingPoolFrequency: 5</t>
+  </si>
+  <si>
+    <t>x= 15 key: 18 matingPoolFrequency: 5</t>
+  </si>
+  <si>
+    <t>Size matingPool :  179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1418,6 +1490,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1436,9 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,7 +1571,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26416ADD-37C9-4027-A250-3B5E8C02049A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26416ADD-37C9-4027-A250-3B5E8C02049A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,11 +1904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView topLeftCell="AH11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:AH31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1829,7 +1924,7 @@
     <col min="15" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="60">
       <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1859,7 +1954,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +1996,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="30">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1943,7 +2038,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1985,7 +2080,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="30">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2027,7 +2122,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="30">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2069,7 +2164,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="30">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -2099,7 +2194,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2133,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="15.75" thickBot="1">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2150,7 +2245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2166,36 +2261,36 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="140" t="s">
+      <c r="O15" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="143" t="s">
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="140" t="s">
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="141"/>
-      <c r="AA15" s="141"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="143" t="s">
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="AE15" s="144"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="145"/>
-    </row>
-    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="153"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="154"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" thickBot="1">
       <c r="J16" s="2" t="s">
         <v>54</v>
       </c>
@@ -2268,7 +2363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="30">
       <c r="J17" s="3">
         <f>QUOTIENT(L17,5)+1</f>
         <v>1</v>
@@ -2359,7 +2454,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="30">
       <c r="J18" s="3">
         <f t="shared" ref="J18:J31" si="4">QUOTIENT(L18,5)+1</f>
         <v>1</v>
@@ -2446,7 +2541,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +2643,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="30">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2653,7 +2748,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="30.75" thickBot="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2758,7 +2853,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="30">
       <c r="H22">
         <v>0</v>
       </c>
@@ -2851,7 +2946,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="30">
       <c r="H23">
         <v>7</v>
       </c>
@@ -2942,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="30">
       <c r="H24">
         <v>10</v>
       </c>
@@ -3032,7 +3127,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3137,7 +3232,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="15.75" thickBot="1">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3239,7 +3334,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="30">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3343,7 +3438,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="30">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3445,7 +3540,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3547,7 +3642,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34">
       <c r="J30" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3632,7 +3727,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="15.75" thickBot="1">
       <c r="J31" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3717,7 +3812,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34">
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -3739,7 +3834,7 @@
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -3764,7 +3859,7 @@
       <c r="AG33" s="23"/>
       <c r="AH33" s="23"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:34">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -3797,7 +3892,7 @@
       <c r="AG34" s="23"/>
       <c r="AH34" s="23"/>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:34">
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -3811,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -3825,7 +3920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:34">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -3839,7 +3934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:34">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -3867,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:34">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -3895,7 +3990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:34">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -3911,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:34">
       <c r="G41">
         <v>11</v>
       </c>
@@ -3920,13 +4015,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34">
       <c r="G42">
         <f>SUM(G38:G41)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34">
       <c r="H44">
         <v>9</v>
       </c>
@@ -3935,7 +4030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34">
       <c r="H45">
         <f>H44-2</f>
         <v>7</v>
@@ -3945,7 +4040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34">
       <c r="H46">
         <f t="shared" ref="H46:H48" si="24">H45-2</f>
         <v>5</v>
@@ -3955,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:34">
       <c r="H47">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -3965,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:34">
       <c r="H48">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -3975,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:14">
       <c r="H49">
         <f>SUM(H44:H48)</f>
         <v>25</v>
@@ -3987,7 +4082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:14">
       <c r="L50" t="s">
         <v>84</v>
       </c>
@@ -4025,11 +4120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -4047,8 +4142,8 @@
     <col min="19" max="38" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:22" ht="60">
       <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
@@ -4090,7 +4185,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="30" customHeight="1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4153,7 +4248,7 @@
         <v>SC:1[ MATH101] [Electronics][John][ComLab 1] RQ: 1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="30" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4218,7 +4313,7 @@
 ][Room 2] RQ: 1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" customHeight="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4281,7 +4376,7 @@
         <v>SC:3[ ENGL101] [Electronics][James][Room 1] RQ: 3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="30" customHeight="1">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4344,7 +4439,7 @@
         <v>SC:4[ MATH101] [Mechtronics][John][ComLab 1] RQ: 1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="30" customHeight="1">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4409,7 +4504,7 @@
 ][Room 1] RQ: 1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="G9" s="1">
         <v>6</v>
       </c>
@@ -4460,7 +4555,7 @@
         <v>SC:6[ ENGL101] [Mechtronics][James][Room 1] RQ: 3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4494,7 +4589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4521,7 +4616,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4548,7 +4643,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="G16" s="2">
         <v>13</v>
       </c>
@@ -4560,7 +4655,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="G17" s="96">
         <v>2</v>
       </c>
@@ -4572,7 +4667,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="G18" s="96">
         <v>5</v>
       </c>
@@ -4584,7 +4679,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4611,7 +4706,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4638,7 +4733,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4665,7 +4760,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="G22" s="2">
         <v>10</v>
       </c>
@@ -4677,7 +4772,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="G23" s="2">
         <v>11</v>
       </c>
@@ -4689,7 +4784,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="G24" s="2">
         <v>12</v>
       </c>
@@ -4701,7 +4796,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4728,7 +4823,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4755,7 +4850,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4782,7 +4877,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4809,7 +4904,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4836,7 +4931,7 @@
       </c>
       <c r="J29" s="95"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="G30" s="96">
         <v>8</v>
       </c>
@@ -4848,42 +4943,42 @@
       </c>
       <c r="J30" s="95"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3">
       <c r="C39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3">
       <c r="C40" t="s">
         <v>26</v>
       </c>
@@ -4928,21 +5023,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:W29"/>
+  <dimension ref="C1:AB123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView showGridLines="0" topLeftCell="E86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123:M123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="19" width="10.7109375" customWidth="1"/>
+    <col min="11" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:23" ht="17.25">
       <c r="C1" s="104" t="s">
         <v>85</v>
       </c>
@@ -4950,21 +5047,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:23">
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:23">
       <c r="M3" s="105">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23">
       <c r="C4">
         <v>0</v>
       </c>
       <c r="M4" s="103"/>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
@@ -5008,7 +5105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:23">
       <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
@@ -5052,7 +5149,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:23" ht="15.75" thickBot="1">
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
@@ -5096,7 +5193,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:23" ht="18.75">
       <c r="C8" s="2">
         <v>12</v>
       </c>
@@ -5148,7 +5245,7 @@
       <c r="U8" s="95"/>
       <c r="W8" s="95"/>
     </row>
-    <row r="9" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:23" ht="18.75">
       <c r="C9" s="97">
         <v>13</v>
       </c>
@@ -5200,7 +5297,7 @@
       <c r="U9" s="95"/>
       <c r="W9" s="95"/>
     </row>
-    <row r="10" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:23" ht="18.75">
       <c r="C10" s="97">
         <v>18</v>
       </c>
@@ -5252,7 +5349,7 @@
       <c r="U10" s="95"/>
       <c r="W10" s="95"/>
     </row>
-    <row r="11" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:23" ht="18.75">
       <c r="C11" s="96">
         <v>6</v>
       </c>
@@ -5304,7 +5401,7 @@
       <c r="U11" s="95"/>
       <c r="W11" s="95"/>
     </row>
-    <row r="12" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:23" ht="18.75">
       <c r="C12" s="96">
         <v>21</v>
       </c>
@@ -5356,7 +5453,7 @@
       <c r="U12" s="95"/>
       <c r="W12" s="95"/>
     </row>
-    <row r="13" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:23" ht="18.75">
       <c r="C13" s="98">
         <v>2</v>
       </c>
@@ -5408,7 +5505,7 @@
       <c r="U13" s="95"/>
       <c r="W13" s="95"/>
     </row>
-    <row r="14" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:23" ht="18.75">
       <c r="C14" s="98">
         <v>8</v>
       </c>
@@ -5460,7 +5557,7 @@
       <c r="U14" s="95"/>
       <c r="W14" s="95"/>
     </row>
-    <row r="15" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:23" ht="18.75">
       <c r="C15" s="99">
         <v>9</v>
       </c>
@@ -5512,7 +5609,7 @@
       <c r="U15" s="95"/>
       <c r="W15" s="95"/>
     </row>
-    <row r="16" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:23" ht="18.75">
       <c r="C16" s="99">
         <v>3</v>
       </c>
@@ -5564,7 +5661,7 @@
       <c r="U16" s="95"/>
       <c r="W16" s="95"/>
     </row>
-    <row r="17" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:23" ht="18.75">
       <c r="C17" s="100">
         <v>15</v>
       </c>
@@ -5616,7 +5713,7 @@
       <c r="U17" s="95"/>
       <c r="W17" s="95"/>
     </row>
-    <row r="18" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:23" ht="18.75">
       <c r="C18" s="100">
         <v>16</v>
       </c>
@@ -5668,7 +5765,7 @@
       <c r="U18" s="95"/>
       <c r="W18" s="95"/>
     </row>
-    <row r="19" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:23" ht="18.75">
       <c r="C19" s="101">
         <v>4</v>
       </c>
@@ -5720,7 +5817,7 @@
       <c r="U19" s="95"/>
       <c r="W19" s="95"/>
     </row>
-    <row r="20" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:23" ht="18.75">
       <c r="C20" s="101">
         <v>20</v>
       </c>
@@ -5772,7 +5869,7 @@
       <c r="U20" s="95"/>
       <c r="W20" s="95"/>
     </row>
-    <row r="21" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:23" ht="18.75">
       <c r="C21" s="2">
         <v>5</v>
       </c>
@@ -5824,7 +5921,7 @@
       <c r="U21" s="95"/>
       <c r="W21" s="95"/>
     </row>
-    <row r="22" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:23" ht="18.75">
       <c r="C22" s="2">
         <v>10</v>
       </c>
@@ -5876,7 +5973,7 @@
       <c r="U22" s="95"/>
       <c r="W22" s="95"/>
     </row>
-    <row r="23" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:23" ht="18.75">
       <c r="C23" s="97">
         <v>17</v>
       </c>
@@ -5928,7 +6025,7 @@
       <c r="U23" s="95"/>
       <c r="W23" s="95"/>
     </row>
-    <row r="24" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:23" ht="18.75">
       <c r="C24" s="97">
         <v>11</v>
       </c>
@@ -5980,7 +6077,7 @@
       <c r="U24" s="95"/>
       <c r="W24" s="95"/>
     </row>
-    <row r="25" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:23" ht="18.75">
       <c r="C25" s="2">
         <v>7</v>
       </c>
@@ -6032,7 +6129,7 @@
       <c r="U25" s="95"/>
       <c r="W25" s="95"/>
     </row>
-    <row r="26" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:23" ht="18.75">
       <c r="C26" s="96">
         <v>19</v>
       </c>
@@ -6084,7 +6181,7 @@
       <c r="U26" s="95"/>
       <c r="W26" s="95"/>
     </row>
-    <row r="27" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:23" ht="18.75">
       <c r="C27" s="96">
         <v>0</v>
       </c>
@@ -6136,7 +6233,7 @@
       <c r="U27" s="95"/>
       <c r="W27" s="95"/>
     </row>
-    <row r="28" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:23" ht="18.75">
       <c r="C28" s="102">
         <v>1</v>
       </c>
@@ -6188,7 +6285,7 @@
       <c r="U28" s="95"/>
       <c r="W28" s="95"/>
     </row>
-    <row r="29" spans="3:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:23" ht="19.5" thickBot="1">
       <c r="C29" s="102">
         <v>14</v>
       </c>
@@ -6240,8 +6337,1530 @@
       <c r="U29" s="95"/>
       <c r="W29" s="95"/>
     </row>
+    <row r="50" spans="3:24" ht="15.75" thickBot="1">
+      <c r="C50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" ht="18.75">
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="141"/>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="X51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" ht="18.75">
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="W52">
+        <v>3</v>
+      </c>
+      <c r="X52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" ht="18.75">
+      <c r="C53" s="141"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="141"/>
+      <c r="W53">
+        <v>4</v>
+      </c>
+      <c r="X53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" ht="18.75">
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="X54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" ht="18.75">
+      <c r="C55" s="141"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="141"/>
+      <c r="J55" s="141"/>
+      <c r="W55">
+        <v>4</v>
+      </c>
+      <c r="X55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="3:24" ht="18.75">
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" ht="18.75">
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" ht="18.75">
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="141"/>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" ht="18.75">
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+      <c r="W59">
+        <v>2</v>
+      </c>
+      <c r="X59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" ht="18.75">
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="141"/>
+      <c r="W60">
+        <v>3</v>
+      </c>
+      <c r="X60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" ht="18.75">
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="141"/>
+      <c r="W61">
+        <v>4</v>
+      </c>
+      <c r="X61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" ht="18.75">
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="141"/>
+      <c r="T62" t="s">
+        <v>176</v>
+      </c>
+      <c r="V62" t="s">
+        <v>176</v>
+      </c>
+      <c r="W62">
+        <v>3</v>
+      </c>
+      <c r="X62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" ht="18.75">
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="141"/>
+      <c r="J63" s="141"/>
+      <c r="V63" t="s">
+        <v>176</v>
+      </c>
+      <c r="W63">
+        <v>4</v>
+      </c>
+      <c r="X63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" ht="18.75">
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
+      <c r="J64" s="141"/>
+      <c r="T64" t="s">
+        <v>176</v>
+      </c>
+      <c r="W64">
+        <v>3</v>
+      </c>
+      <c r="X64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="3:28" ht="18.75">
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="141"/>
+      <c r="J65" s="141"/>
+      <c r="W65">
+        <v>2</v>
+      </c>
+      <c r="X65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="3:28" ht="18.75">
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="141"/>
+      <c r="J66" s="141"/>
+      <c r="W66">
+        <v>4</v>
+      </c>
+      <c r="X66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="3:28" ht="18.75">
+      <c r="C67" s="141"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="141"/>
+      <c r="H67" s="141"/>
+      <c r="I67" s="141"/>
+      <c r="J67" s="141"/>
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:28" ht="18.75">
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="141"/>
+      <c r="I68" s="141"/>
+      <c r="J68" s="141"/>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="3:28" ht="18.75">
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="141"/>
+      <c r="H69" s="141"/>
+      <c r="I69" s="141"/>
+      <c r="J69" s="141"/>
+      <c r="W69">
+        <v>4</v>
+      </c>
+      <c r="X69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="3:28" ht="18.75">
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="141"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="141"/>
+      <c r="I70" s="141"/>
+      <c r="J70" s="141"/>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="3:28" ht="18.75">
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="141"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="141"/>
+      <c r="I71" s="141"/>
+      <c r="J71" s="141"/>
+      <c r="V71" t="s">
+        <v>176</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="3:28" ht="19.5" thickBot="1">
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="141"/>
+      <c r="J72" s="141"/>
+      <c r="V72" t="s">
+        <v>176</v>
+      </c>
+      <c r="W72">
+        <v>3</v>
+      </c>
+      <c r="X72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="3:28" ht="15.75" thickBot="1"/>
+    <row r="80" spans="3:28">
+      <c r="I80" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="150"/>
+      <c r="K80" s="150"/>
+      <c r="L80" s="150"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="O80" s="153"/>
+      <c r="P80" s="153"/>
+      <c r="Q80" s="153"/>
+      <c r="R80" s="154"/>
+      <c r="S80" s="149" t="s">
+        <v>70</v>
+      </c>
+      <c r="T80" s="150"/>
+      <c r="U80" s="150"/>
+      <c r="V80" s="150"/>
+      <c r="W80" s="151"/>
+      <c r="X80" s="152" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y80" s="153"/>
+      <c r="Z80" s="153"/>
+      <c r="AA80" s="153"/>
+      <c r="AB80" s="154"/>
+    </row>
+    <row r="81" spans="4:28" ht="15.75" thickBot="1">
+      <c r="D81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N81" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="O81" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q81" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="R81" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="S81" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V81" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W81" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X81" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y81" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z81" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA81" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB81" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="4:28">
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I82" s="52"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="2">
+        <v>6</v>
+      </c>
+      <c r="O82" s="2" t="str">
+        <f>CONCATENATE(W51,X51)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P82" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>3</v>
+      </c>
+      <c r="R82" s="43"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z82" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA82" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB82" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="4:28">
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="2">
+        <v>6</v>
+      </c>
+      <c r="O83" s="2" t="str">
+        <f>CONCATENATE(W52,X52)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P83" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>3</v>
+      </c>
+      <c r="R83" s="47"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="73"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y83" s="2" t="str">
+        <f>CONCATENATE(W53,X53)</f>
+        <v>4Study Break</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="4:28">
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="25"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="2">
+        <v>3</v>
+      </c>
+      <c r="O84" s="2" t="str">
+        <f>CONCATENATE(W54,X54)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>3</v>
+      </c>
+      <c r="R84" s="47"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y84" s="2" t="str">
+        <f>CONCATENATE(W55,X55)</f>
+        <v>4Study Break</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB84" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="4:28">
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4</v>
+      </c>
+      <c r="F85" s="3">
+        <v>3</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="74"/>
+      <c r="U85" s="58"/>
+      <c r="V85" s="57"/>
+      <c r="W85" s="59"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z85" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA85" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB85" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="4:28" ht="15.75" thickBot="1">
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
+        <v>5</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I86" s="29"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="62"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="63"/>
+      <c r="X86" s="48"/>
+      <c r="Y86" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z86" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA86" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB86" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="4:28">
+      <c r="D87" s="77">
+        <v>2</v>
+      </c>
+      <c r="E87" s="77">
+        <v>1</v>
+      </c>
+      <c r="F87" s="77">
+        <v>5</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I87" s="52"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="53"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="2">
+        <v>2</v>
+      </c>
+      <c r="O87" s="2" t="str">
+        <f>CONCATENATE(W56,X56)</f>
+        <v>2POLSC101</v>
+      </c>
+      <c r="P87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>1</v>
+      </c>
+      <c r="R87" s="43"/>
+      <c r="S87" s="2">
+        <v>4</v>
+      </c>
+      <c r="T87" s="2" t="str">
+        <f>CONCATENATE(W57,X57)</f>
+        <v>1MATH101</v>
+      </c>
+      <c r="U87" s="2">
+        <v>2</v>
+      </c>
+      <c r="V87" s="2">
+        <v>4</v>
+      </c>
+      <c r="W87" s="22"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z87" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA87" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB87" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="4:28">
+      <c r="D88" s="77">
+        <v>2</v>
+      </c>
+      <c r="E88" s="77">
+        <v>2</v>
+      </c>
+      <c r="F88" s="77">
+        <v>6</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I88" s="56"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="2">
+        <v>2</v>
+      </c>
+      <c r="O88" s="2" t="str">
+        <f>CONCATENATE(W59,X59)</f>
+        <v>2POLSC101</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>1</v>
+      </c>
+      <c r="R88" s="47"/>
+      <c r="S88" s="2">
+        <v>4</v>
+      </c>
+      <c r="T88" s="2" t="str">
+        <f>CONCATENATE(W58,X58)</f>
+        <v>1MATH101</v>
+      </c>
+      <c r="U88" s="2">
+        <v>2</v>
+      </c>
+      <c r="V88" s="2">
+        <v>4</v>
+      </c>
+      <c r="W88" s="14"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z88" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA88" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB88" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="4:28">
+      <c r="D89" s="77">
+        <v>2</v>
+      </c>
+      <c r="E89" s="77">
+        <v>3</v>
+      </c>
+      <c r="F89" s="77">
+        <v>7</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I89" s="56"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="2">
+        <v>6</v>
+      </c>
+      <c r="O89" s="2" t="str">
+        <f>CONCATENATE(W60,X60)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P89" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>3</v>
+      </c>
+      <c r="R89" s="47"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y89" s="2" t="str">
+        <f>CONCATENATE(W61,X61)</f>
+        <v>4Study Break</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="4:28">
+      <c r="D90" s="77">
+        <v>2</v>
+      </c>
+      <c r="E90" s="77">
+        <v>4</v>
+      </c>
+      <c r="F90" s="77">
+        <v>8</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="25"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="2">
+        <v>3</v>
+      </c>
+      <c r="O90" s="2" t="str">
+        <f>CONCATENATE(W62,X62)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>3</v>
+      </c>
+      <c r="R90" s="47"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y90" s="2" t="str">
+        <f>CONCATENATE(W63,X63)</f>
+        <v>4Study Break</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB90" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="4:28" ht="15.75" thickBot="1">
+      <c r="D91" s="77">
+        <v>2</v>
+      </c>
+      <c r="E91" s="77">
+        <v>5</v>
+      </c>
+      <c r="F91" s="77">
+        <v>9</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I91" s="29"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="2">
+        <v>3</v>
+      </c>
+      <c r="O91" s="2" t="str">
+        <f>CONCATENATE(W64,X64)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>3</v>
+      </c>
+      <c r="R91" s="51"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z91" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA91" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB91" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="4:28">
+      <c r="D92" s="3">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>10</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I92" s="52"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="53"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="19">
+        <v>5</v>
+      </c>
+      <c r="O92" s="20" t="str">
+        <f>CONCATENATE(W65,X65)</f>
+        <v>2POLSC101</v>
+      </c>
+      <c r="P92" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="20">
+        <v>1</v>
+      </c>
+      <c r="R92" s="43"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z92" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA92" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB92" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="4:28">
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3">
+        <v>11</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I93" s="56"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="2">
+        <v>5</v>
+      </c>
+      <c r="O93" s="2" t="str">
+        <f>CONCATENATE(W67,X67)</f>
+        <v>2POLSC101</v>
+      </c>
+      <c r="P93" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1</v>
+      </c>
+      <c r="R93" s="47"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y93" s="2" t="str">
+        <f>CONCATENATE(W66,X66)</f>
+        <v>4Study Break</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB93" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="4:28">
+      <c r="D94" s="3">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" s="25"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="2">
+        <v>3</v>
+      </c>
+      <c r="O94" s="2" t="str">
+        <f>CONCATENATE(W68,X68)</f>
+        <v>3ENGL101</v>
+      </c>
+      <c r="P94" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>3</v>
+      </c>
+      <c r="R94" s="47"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z94" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA94" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB94" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="4:28">
+      <c r="D95" s="3">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3">
+        <v>4</v>
+      </c>
+      <c r="F95" s="3">
+        <v>13</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" s="11"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="45"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="2">
+        <v>1</v>
+      </c>
+      <c r="T95" s="2" t="str">
+        <f>CONCATENATE(W70,X70)</f>
+        <v>1MATH101</v>
+      </c>
+      <c r="U95" s="2">
+        <v>1</v>
+      </c>
+      <c r="V95" s="2">
+        <v>4</v>
+      </c>
+      <c r="W95" s="14"/>
+      <c r="X95" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y95" s="2" t="str">
+        <f>CONCATENATE(W69,X69)</f>
+        <v>4Study Break</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB95" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="4:28" ht="15.75" thickBot="1">
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3">
+        <v>5</v>
+      </c>
+      <c r="F96" s="3">
+        <v>14</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="145">
+        <v>6</v>
+      </c>
+      <c r="O96" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="P96" s="147">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="146">
+        <v>3</v>
+      </c>
+      <c r="R96" s="51"/>
+      <c r="S96" s="15">
+        <v>1</v>
+      </c>
+      <c r="T96" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="U96" s="17">
+        <v>1</v>
+      </c>
+      <c r="V96" s="16">
+        <v>4</v>
+      </c>
+      <c r="W96" s="18"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z96" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA96" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB96" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13">
+      <c r="H101" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13">
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13">
+      <c r="H103" s="2">
+        <v>1</v>
+      </c>
+      <c r="I103" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13">
+      <c r="H104" s="2">
+        <v>1</v>
+      </c>
+      <c r="I104" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13">
+      <c r="H105" s="2">
+        <v>3</v>
+      </c>
+      <c r="I105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13">
+      <c r="H106" s="2">
+        <v>3</v>
+      </c>
+      <c r="I106" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13">
+      <c r="H107" s="2">
+        <v>5</v>
+      </c>
+      <c r="I107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13">
+      <c r="H108" s="2">
+        <v>5</v>
+      </c>
+      <c r="I108" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13">
+      <c r="H109" s="2">
+        <v>6</v>
+      </c>
+      <c r="I109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13">
+      <c r="H110" s="2">
+        <v>6</v>
+      </c>
+      <c r="I110" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="8:13">
+      <c r="H111" s="2">
+        <v>7</v>
+      </c>
+      <c r="I111" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13">
+      <c r="H112" s="2">
+        <v>7</v>
+      </c>
+      <c r="I112" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="8:13">
+      <c r="H113" s="2">
+        <v>8</v>
+      </c>
+      <c r="I113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="8:13">
+      <c r="H114" s="2">
+        <v>8</v>
+      </c>
+      <c r="I114" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="8:13">
+      <c r="H115" s="2">
+        <v>9</v>
+      </c>
+      <c r="I115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="8:13">
+      <c r="H116" s="2">
+        <v>10</v>
+      </c>
+      <c r="I116" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="8:13">
+      <c r="H117" s="2">
+        <v>11</v>
+      </c>
+      <c r="I117" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="8:13">
+      <c r="H118" s="2">
+        <v>11</v>
+      </c>
+      <c r="I118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="8:13">
+      <c r="H119" s="2">
+        <v>12</v>
+      </c>
+      <c r="I119" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="8:13">
+      <c r="H120" s="2">
+        <v>13</v>
+      </c>
+      <c r="I120" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="8:13">
+      <c r="H121" s="2">
+        <v>13</v>
+      </c>
+      <c r="I121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="8:13">
+      <c r="H122" s="2">
+        <v>14</v>
+      </c>
+      <c r="I122" s="2">
+        <v>3</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="8:13">
+      <c r="H123" s="2">
+        <v>14</v>
+      </c>
+      <c r="I123" s="2">
+        <v>2</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
   </sheetData>
+  <sortState ref="H102:N123">
+    <sortCondition ref="J101"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="I80:M80"/>
+    <mergeCell ref="N80:R80"/>
+    <mergeCell ref="S80:W80"/>
+    <mergeCell ref="X80:AB80"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6253,7 +7872,7 @@
       <selection activeCell="J12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6262,21 +7881,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -6287,7 +7907,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -6297,11 +7917,25 @@
       <c r="E2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="140" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N17" si="0">M2/$M$18</f>
+        <v>0.18435754189944134</v>
+      </c>
+      <c r="O2" s="155">
+        <f t="shared" ref="O2:O17" si="1">N2*100</f>
+        <v>18.435754189944134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -6311,11 +7945,25 @@
       <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="140" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0.11173184357541899</v>
+      </c>
+      <c r="O3" s="148">
+        <f t="shared" si="1"/>
+        <v>11.173184357541899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -6325,11 +7973,25 @@
       <c r="E4" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="140" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>9.4972067039106142E-2</v>
+      </c>
+      <c r="O4" s="148">
+        <f t="shared" si="1"/>
+        <v>9.4972067039106136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -6339,11 +8001,25 @@
       <c r="E5" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="146" t="s">
+      <c r="H5" s="140" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>7.8212290502793297E-2</v>
+      </c>
+      <c r="O5" s="148">
+        <f t="shared" si="1"/>
+        <v>7.8212290502793298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -6353,11 +8029,25 @@
       <c r="E6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="146" t="s">
+      <c r="H6" s="140" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>7.2625698324022353E-2</v>
+      </c>
+      <c r="O6" s="148">
+        <f t="shared" si="1"/>
+        <v>7.2625698324022352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6367,16 +8057,44 @@
       <c r="E7" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="146" t="s">
+      <c r="H7" s="140" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="146" t="s">
+      <c r="K7" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>6.1452513966480445E-2</v>
+      </c>
+      <c r="O7" s="148">
+        <f t="shared" si="1"/>
+        <v>6.1452513966480442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="H8" s="140" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>5.5865921787709494E-2</v>
+      </c>
+      <c r="O8" s="148">
+        <f t="shared" si="1"/>
+        <v>5.5865921787709496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -6386,11 +8104,25 @@
       <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="146" t="s">
+      <c r="H9" s="140" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>5.027932960893855E-2</v>
+      </c>
+      <c r="O9" s="148">
+        <f t="shared" si="1"/>
+        <v>5.027932960893855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -6400,11 +8132,25 @@
       <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="146" t="s">
+      <c r="H10" s="140" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>4.4692737430167599E-2</v>
+      </c>
+      <c r="O10" s="148">
+        <f t="shared" si="1"/>
+        <v>4.4692737430167595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -6414,11 +8160,25 @@
       <c r="E11" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="146" t="s">
+      <c r="H11" s="140" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4.4692737430167599E-2</v>
+      </c>
+      <c r="O11" s="148">
+        <f t="shared" si="1"/>
+        <v>4.4692737430167595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6428,11 +8188,25 @@
       <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="140" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>3.9106145251396648E-2</v>
+      </c>
+      <c r="O12" s="148">
+        <f t="shared" si="1"/>
+        <v>3.9106145251396649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6442,19 +8216,47 @@
       <c r="E13" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="146" t="s">
+      <c r="H13" s="140" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="146" t="s">
+      <c r="K13" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>3.9106145251396648E-2</v>
+      </c>
+      <c r="O13" s="148">
+        <f t="shared" si="1"/>
+        <v>3.9106145251396649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="H14" s="140" t="s">
         <v>166</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3.3519553072625698E-2</v>
+      </c>
+      <c r="O14" s="148">
+        <f t="shared" si="1"/>
+        <v>3.3519553072625698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -6464,11 +8266,25 @@
       <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="146" t="s">
+      <c r="H15" s="140" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3.3519553072625698E-2</v>
+      </c>
+      <c r="O15" s="148">
+        <f t="shared" si="1"/>
+        <v>3.3519553072625698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -6478,14 +8294,28 @@
       <c r="E16" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="146" t="s">
+      <c r="H16" s="140" t="s">
         <v>168</v>
       </c>
       <c r="I16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>2.7932960893854747E-2</v>
+      </c>
+      <c r="O16" s="148">
+        <f t="shared" si="1"/>
+        <v>2.7932960893854748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -6495,11 +8325,25 @@
       <c r="E17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="146" t="s">
+      <c r="H17" s="140" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2.7932960893854747E-2</v>
+      </c>
+      <c r="O17" s="148">
+        <f t="shared" si="1"/>
+        <v>2.7932960893854748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -6509,11 +8353,18 @@
       <c r="E18" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="146" t="s">
+      <c r="H18" s="140" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="M18">
+        <f>SUM(M2:M17)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -6523,11 +8374,11 @@
       <c r="E19" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="146" t="s">
+      <c r="H19" s="140" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -6537,11 +8388,11 @@
       <c r="E20" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="146" t="s">
+      <c r="H20" s="140" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6551,16 +8402,16 @@
       <c r="E21" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="146" t="s">
+      <c r="H21" s="140" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="146" t="s">
+    <row r="22" spans="1:15">
+      <c r="H22" s="140" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -6570,11 +8421,11 @@
       <c r="E23" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="146" t="s">
+      <c r="H23" s="140" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -6585,7 +8436,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -6596,7 +8447,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -6607,7 +8458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -6618,7 +8469,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -6629,7 +8480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -6640,7 +8491,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -6651,7 +8502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -6662,7 +8513,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -6673,7 +8524,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -6684,7 +8535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -6695,7 +8546,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -6706,7 +8557,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -6717,7 +8568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -6728,7 +8579,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -6739,7 +8590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6750,7 +8601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -6761,7 +8612,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -6772,7 +8623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -6783,7 +8634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -6794,7 +8645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -6805,7 +8656,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -6816,7 +8667,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -6827,7 +8678,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -6838,7 +8689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -6849,7 +8700,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -6860,7 +8711,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -6871,7 +8722,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -6882,7 +8733,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>138</v>
       </c>
